--- a/词条标签对照表.xlsx
+++ b/词条标签对照表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数学" sheetId="17" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="546">
   <si>
     <t>epsilon符号</t>
   </si>
@@ -1657,6 +1657,18 @@
   </si>
   <si>
     <t>FitPdf</t>
+  </si>
+  <si>
+    <t>麦克斯韦方程组</t>
+  </si>
+  <si>
+    <t>麦克斯韦方程组（介质）</t>
+  </si>
+  <si>
+    <t>MWEq1</t>
+  </si>
+  <si>
+    <t>MWEq</t>
   </si>
 </sst>
 </file>
@@ -1765,7 +1777,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1816,6 +1828,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3752,8 +3767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA727655-9C2D-40D4-B0BD-5B356A822265}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4201,10 +4216,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9296875" defaultRowHeight="13.15"/>
@@ -4364,6 +4379,22 @@
       </c>
       <c r="B19" s="1" t="s">
         <v>387</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="18" t="s">
+        <v>542</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>544</v>
       </c>
     </row>
   </sheetData>

--- a/词条标签对照表.xlsx
+++ b/词条标签对照表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数学" sheetId="17" r:id="rId1"/>
@@ -1368,9 +1368,6 @@
     <t>BiNorM</t>
   </si>
   <si>
-    <t>二项式定理（非整数）的数值验证</t>
-  </si>
-  <si>
     <t>天体运动的简单数值计算</t>
   </si>
   <si>
@@ -1669,6 +1666,9 @@
   </si>
   <si>
     <t>MWEq</t>
+  </si>
+  <si>
+    <t>二项式定理（非整数幂）的数值验证</t>
   </si>
 </sst>
 </file>
@@ -2201,7 +2201,7 @@
         <v>270</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K1" s="5"/>
     </row>
@@ -2231,18 +2231,18 @@
         <v>272</v>
       </c>
       <c r="I2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>62</v>
@@ -2257,16 +2257,16 @@
         <v>439</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="J3" t="s">
         <v>530</v>
-      </c>
-      <c r="J3" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2274,7 +2274,7 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>379</v>
@@ -2289,7 +2289,7 @@
         <v>138</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>356</v>
@@ -2361,10 +2361,10 @@
         <v>85</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="F7" t="s">
         <v>477</v>
-      </c>
-      <c r="F7" t="s">
-        <v>478</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>437</v>
@@ -2439,7 +2439,7 @@
         <v>99</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>146</v>
@@ -2465,7 +2465,7 @@
         <v>102</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>147</v>
@@ -2491,7 +2491,7 @@
         <v>54</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>139</v>
@@ -2505,7 +2505,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>89</v>
@@ -2517,16 +2517,16 @@
         <v>98</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>456</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>149</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2575,10 +2575,10 @@
         <v>71</v>
       </c>
       <c r="G15" t="s">
+        <v>519</v>
+      </c>
+      <c r="H15" t="s">
         <v>520</v>
-      </c>
-      <c r="H15" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2595,10 +2595,10 @@
         <v>159</v>
       </c>
       <c r="G16" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H16" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2609,10 +2609,10 @@
         <v>113</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>480</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>389</v>
@@ -2643,7 +2643,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="C19" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>49</v>
@@ -2679,18 +2679,18 @@
     </row>
     <row r="22" spans="1:8">
       <c r="C22" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D22" t="s">
         <v>450</v>
-      </c>
-      <c r="D22" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="C23" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2735,7 +2735,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2827,7 +2827,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B7" t="s">
         <v>401</v>
@@ -3364,19 +3364,19 @@
         <v>75</v>
       </c>
       <c r="C2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>472</v>
-      </c>
       <c r="E2" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>485</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>306</v>
@@ -3390,7 +3390,7 @@
     </row>
     <row r="3" spans="1:10" ht="14.25">
       <c r="A3" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>65</v>
@@ -3405,7 +3405,7 @@
         <v>126</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>333</v>
@@ -3468,16 +3468,16 @@
         <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G6" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>486</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3562,10 +3562,10 @@
     </row>
     <row r="11" spans="1:10" ht="14.25">
       <c r="A11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>304</v>
@@ -3576,10 +3576,10 @@
     </row>
     <row r="12" spans="1:10" ht="14.25">
       <c r="A12" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>452</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>453</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>416</v>
@@ -3618,16 +3618,16 @@
     </row>
     <row r="15" spans="1:10" ht="14.25">
       <c r="A15" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>329</v>
       </c>
       <c r="C15" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -3646,7 +3646,7 @@
     </row>
     <row r="17" spans="1:4" ht="14.25">
       <c r="A17" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>417</v>
@@ -3746,10 +3746,10 @@
     </row>
     <row r="28" spans="1:4" ht="14.25">
       <c r="A28" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B28" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="14.25">
@@ -3767,8 +3767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA727655-9C2D-40D4-B0BD-5B356A822265}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3783,55 +3783,55 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>495</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>509</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>498</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>156</v>
@@ -3839,7 +3839,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="10" t="s">
-        <v>445</v>
+        <v>545</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>444</v>
@@ -3847,47 +3847,47 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>502</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>505</v>
+      </c>
+      <c r="B11" t="s">
         <v>506</v>
-      </c>
-      <c r="B11" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>504</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
+        <v>512</v>
+      </c>
+      <c r="B13" t="s">
         <v>513</v>
-      </c>
-      <c r="B13" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="B14" t="s">
         <v>522</v>
-      </c>
-      <c r="B14" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>90</v>
@@ -3895,10 +3895,10 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3911,42 +3911,42 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>488</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>489</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>491</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
+        <v>492</v>
+      </c>
+      <c r="B20" t="s">
         <v>493</v>
-      </c>
-      <c r="B20" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
+        <v>539</v>
+      </c>
+      <c r="B24" t="s">
         <v>540</v>
-      </c>
-      <c r="B24" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
+        <v>526</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>527</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -4128,10 +4128,10 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>538</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4218,8 +4218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9296875" defaultRowHeight="13.15"/>
@@ -4383,18 +4383,18 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>543</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>544</v>
       </c>
     </row>
   </sheetData>
@@ -4515,26 +4515,26 @@
     </row>
     <row r="14" spans="1:2" ht="14.25">
       <c r="A14" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B14" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>534</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="14.25">
       <c r="A16" t="s">
+        <v>531</v>
+      </c>
+      <c r="B16" t="s">
         <v>532</v>
-      </c>
-      <c r="B16" t="s">
-        <v>533</v>
       </c>
     </row>
   </sheetData>

--- a/词条标签对照表.xlsx
+++ b/词条标签对照表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数学" sheetId="17" r:id="rId1"/>
@@ -3323,8 +3323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
@@ -3767,7 +3767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA727655-9C2D-40D4-B0BD-5B356A822265}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -4219,7 +4219,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9296875" defaultRowHeight="13.15"/>

--- a/词条标签对照表.xlsx
+++ b/词条标签对照表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数学" sheetId="17" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="548">
   <si>
     <t>epsilon符号</t>
   </si>
@@ -1669,6 +1669,12 @@
   </si>
   <si>
     <t>二项式定理（非整数幂）的数值验证</t>
+  </si>
+  <si>
+    <t>复数</t>
+  </si>
+  <si>
+    <t>CplxNo</t>
   </si>
 </sst>
 </file>
@@ -2171,10 +2177,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2505,10 +2511,10 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>89</v>
+        <v>546</v>
+      </c>
+      <c r="B13" t="s">
+        <v>547</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>95</v>
@@ -2531,10 +2537,10 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>295</v>
+        <v>460</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>422</v>
@@ -2557,10 +2563,10 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>404</v>
@@ -2582,6 +2588,12 @@
       </c>
     </row>
     <row r="16" spans="1:11">
+      <c r="A16" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="C16" s="2" t="s">
         <v>103</v>
       </c>
@@ -2601,7 +2613,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="3:8">
       <c r="C17" s="2" t="s">
         <v>112</v>
       </c>
@@ -2621,7 +2633,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="3:8">
       <c r="C18" s="2" t="s">
         <v>42</v>
       </c>
@@ -2641,7 +2653,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="3:8">
       <c r="C19" s="2" t="s">
         <v>487</v>
       </c>
@@ -2655,7 +2667,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="3:8">
       <c r="C20" s="2" t="s">
         <v>91</v>
       </c>
@@ -2669,7 +2681,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="3:8">
       <c r="C21" s="2" t="s">
         <v>330</v>
       </c>
@@ -2677,7 +2689,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="3:8">
       <c r="C22" s="2" t="s">
         <v>449</v>
       </c>
@@ -2685,7 +2697,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="3:8">
       <c r="C23" t="s">
         <v>461</v>
       </c>
@@ -2693,7 +2705,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="3:8">
       <c r="C24" s="3" t="s">
         <v>78</v>
       </c>
@@ -2701,7 +2713,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="3:8">
       <c r="C25" s="3" t="s">
         <v>79</v>
       </c>
@@ -2709,7 +2721,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="3:8">
       <c r="C26" s="2" t="s">
         <v>128</v>
       </c>
@@ -2717,7 +2729,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="3:8">
       <c r="C27" s="2" t="s">
         <v>165</v>
       </c>
@@ -2725,7 +2737,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="3:8">
       <c r="C28" s="2" t="s">
         <v>166</v>
       </c>
@@ -2733,16 +2745,16 @@
         <v>169</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" t="s">
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="1" t="s">
+    <row r="34" spans="1:6">
+      <c r="A34" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2750,13 +2762,13 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-    </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3323,7 +3335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>

--- a/词条标签对照表.xlsx
+++ b/词条标签对照表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数学" sheetId="17" r:id="rId1"/>
@@ -942,9 +942,6 @@
     <t>RBEM</t>
   </si>
   <si>
-    <t>刚体的运动方程</t>
-  </si>
-  <si>
     <t>刚体的静力平衡</t>
   </si>
   <si>
@@ -1675,6 +1672,9 @@
   </si>
   <si>
     <t>CplxNo</t>
+  </si>
+  <si>
+    <t>刚体的平面运动方程</t>
   </si>
 </sst>
 </file>
@@ -2177,10 +2177,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2195,19 +2195,19 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>381</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>382</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>270</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="K1" s="5"/>
     </row>
@@ -2237,18 +2237,18 @@
         <v>272</v>
       </c>
       <c r="I2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="J2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>62</v>
@@ -2257,33 +2257,33 @@
         <v>59</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="J3" t="s">
         <v>529</v>
       </c>
-      <c r="J3" t="s">
-        <v>530</v>
-      </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>475</v>
+      <c r="A4" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>48</v>
@@ -2295,24 +2295,24 @@
         <v>138</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>155</v>
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>474</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>385</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>140</v>
@@ -2329,10 +2329,10 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>419</v>
+        <v>280</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>93</v>
+        <v>155</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>105</v>
@@ -2347,7 +2347,7 @@
         <v>70</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>275</v>
@@ -2355,10 +2355,10 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>63</v>
@@ -2367,24 +2367,24 @@
         <v>85</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="F7" t="s">
         <v>476</v>
       </c>
-      <c r="F7" t="s">
-        <v>477</v>
-      </c>
       <c r="G7" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>437</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>94</v>
@@ -2399,7 +2399,7 @@
         <v>69</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>148</v>
@@ -2407,10 +2407,10 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>109</v>
+        <v>420</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>55</v>
@@ -2433,10 +2433,10 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>88</v>
@@ -2445,7 +2445,7 @@
         <v>99</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>146</v>
@@ -2458,11 +2458,11 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" t="s">
-        <v>442</v>
-      </c>
-      <c r="B11" t="s">
-        <v>309</v>
+      <c r="A11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>294</v>
@@ -2471,13 +2471,13 @@
         <v>102</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>147</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>148</v>
@@ -2485,10 +2485,10 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>443</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>332</v>
+        <v>441</v>
+      </c>
+      <c r="B12" t="s">
+        <v>308</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>53</v>
@@ -2497,24 +2497,24 @@
         <v>54</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>139</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="B13" t="s">
-        <v>547</v>
+      <c r="A13" t="s">
+        <v>442</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>95</v>
@@ -2523,27 +2523,27 @@
         <v>98</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>454</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>455</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>149</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>89</v>
+        <v>545</v>
+      </c>
+      <c r="B14" t="s">
+        <v>546</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>111</v>
@@ -2563,16 +2563,16 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="2" t="s">
-        <v>295</v>
+        <v>459</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>404</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>405</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>160</v>
@@ -2581,18 +2581,18 @@
         <v>71</v>
       </c>
       <c r="G15" t="s">
+        <v>518</v>
+      </c>
+      <c r="H15" t="s">
         <v>519</v>
-      </c>
-      <c r="H15" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>103</v>
@@ -2607,13 +2607,19 @@
         <v>159</v>
       </c>
       <c r="G16" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H16" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="C17" s="2" t="s">
         <v>112</v>
       </c>
@@ -2621,19 +2627,19 @@
         <v>113</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>479</v>
-      </c>
       <c r="G17" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="3:8">
+    <row r="18" spans="1:8">
       <c r="C18" s="2" t="s">
         <v>42</v>
       </c>
@@ -2647,15 +2653,15 @@
         <v>132</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="C19" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>49</v>
@@ -2667,7 +2673,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="3:8">
+    <row r="20" spans="1:8">
       <c r="C20" s="2" t="s">
         <v>91</v>
       </c>
@@ -2681,31 +2687,31 @@
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="3:8">
+    <row r="21" spans="1:8">
       <c r="C21" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8">
+    </row>
+    <row r="22" spans="1:8">
       <c r="C22" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D22" t="s">
         <v>449</v>
       </c>
-      <c r="D22" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8">
+    </row>
+    <row r="23" spans="1:8">
       <c r="C23" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="C24" s="3" t="s">
         <v>78</v>
       </c>
@@ -2713,7 +2719,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="3:8">
+    <row r="25" spans="1:8">
       <c r="C25" s="3" t="s">
         <v>79</v>
       </c>
@@ -2721,7 +2727,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="3:8">
+    <row r="26" spans="1:8">
       <c r="C26" s="2" t="s">
         <v>128</v>
       </c>
@@ -2729,7 +2735,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="3:8">
+    <row r="27" spans="1:8">
       <c r="C27" s="2" t="s">
         <v>165</v>
       </c>
@@ -2737,7 +2743,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="3:8">
+    <row r="28" spans="1:8">
       <c r="C28" s="2" t="s">
         <v>166</v>
       </c>
@@ -2745,16 +2751,16 @@
         <v>169</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
-        <v>481</v>
-      </c>
-    </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2762,13 +2768,13 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-    </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2807,10 +2813,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B3" t="s">
         <v>367</v>
-      </c>
-      <c r="B3" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2831,18 +2837,18 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2871,18 +2877,18 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>338</v>
+      </c>
+      <c r="B11" t="s">
         <v>339</v>
-      </c>
-      <c r="B11" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>336</v>
+      </c>
+      <c r="B12" t="s">
         <v>337</v>
-      </c>
-      <c r="B12" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2890,15 +2896,15 @@
         <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2951,10 +2957,10 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B21" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2983,10 +2989,10 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B25" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3007,34 +3013,34 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B28" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B29" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B30" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
+        <v>401</v>
+      </c>
+      <c r="B31" t="s">
         <v>402</v>
-      </c>
-      <c r="B31" t="s">
-        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -3054,10 +3060,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B1" t="s">
         <v>377</v>
-      </c>
-      <c r="B1" t="s">
-        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -3245,7 +3251,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>84</v>
@@ -3320,10 +3326,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B1" t="s">
         <v>307</v>
-      </c>
-      <c r="B1" t="s">
-        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -3335,8 +3341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
@@ -3355,16 +3361,16 @@
   <sheetData>
     <row r="1" spans="1:10" ht="14.25">
       <c r="A1" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="G1" s="5" t="s">
         <v>411</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>412</v>
       </c>
       <c r="I1" s="5"/>
     </row>
@@ -3376,22 +3382,22 @@
         <v>75</v>
       </c>
       <c r="C2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>471</v>
-      </c>
       <c r="E2" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>484</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>206</v>
@@ -3402,42 +3408,42 @@
     </row>
     <row r="3" spans="1:10" ht="14.25">
       <c r="A3" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>126</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H3" t="s">
         <v>333</v>
-      </c>
-      <c r="H3" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.25">
       <c r="A4" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>430</v>
-      </c>
       <c r="C4" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>316</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>317</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>115</v>
@@ -3446,24 +3452,24 @@
         <v>116</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>440</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>441</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>50</v>
@@ -3480,16 +3486,16 @@
         <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G6" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>485</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3500,10 +3506,10 @@
         <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>321</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>185</v>
@@ -3520,10 +3526,10 @@
         <v>67</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>187</v>
@@ -3540,7 +3546,7 @@
         <v>66</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>124</v>
@@ -3554,10 +3560,10 @@
     </row>
     <row r="10" spans="1:10" ht="14.25">
       <c r="A10" s="10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>32</v>
@@ -3574,27 +3580,27 @@
     </row>
     <row r="11" spans="1:10" ht="14.25">
       <c r="A11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25">
       <c r="A12" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>452</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>256</v>
@@ -3602,13 +3608,13 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>255</v>
@@ -3616,7 +3622,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>45</v>
@@ -3630,41 +3636,41 @@
     </row>
     <row r="15" spans="1:10" ht="14.25">
       <c r="A15" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D15" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.25">
       <c r="A17" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C17" t="s">
-        <v>303</v>
+        <v>547</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>302</v>
@@ -3672,10 +3678,10 @@
     </row>
     <row r="18" spans="1:4" ht="14.25">
       <c r="A18" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>162</v>
@@ -3686,10 +3692,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3710,7 +3716,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>127</v>
@@ -3742,26 +3748,26 @@
     </row>
     <row r="26" spans="1:4" ht="14.25">
       <c r="A26" t="s">
+        <v>394</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>395</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.25">
       <c r="A28" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B28" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="14.25">
@@ -3790,60 +3796,60 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>494</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>508</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>499</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>497</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>156</v>
@@ -3851,55 +3857,55 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>501</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>504</v>
+      </c>
+      <c r="B11" t="s">
         <v>505</v>
-      </c>
-      <c r="B11" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>503</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
+        <v>511</v>
+      </c>
+      <c r="B13" t="s">
         <v>512</v>
-      </c>
-      <c r="B13" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="B14" t="s">
         <v>521</v>
-      </c>
-      <c r="B14" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>90</v>
@@ -3907,15 +3913,15 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>445</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>90</v>
@@ -3923,42 +3929,42 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>487</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>488</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
+        <v>491</v>
+      </c>
+      <c r="B20" t="s">
         <v>492</v>
-      </c>
-      <c r="B20" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
+        <v>538</v>
+      </c>
+      <c r="B24" t="s">
         <v>539</v>
-      </c>
-      <c r="B24" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
+        <v>525</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>526</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>527</v>
       </c>
     </row>
   </sheetData>
@@ -3982,10 +3988,10 @@
   <sheetData>
     <row r="5" spans="1:2" ht="14.25">
       <c r="A5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3998,18 +4004,18 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -4049,7 +4055,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A25" sqref="A25:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9296875" defaultRowHeight="13.15"/>
@@ -4060,26 +4066,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>431</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4092,18 +4098,18 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4132,26 +4138,26 @@
     </row>
     <row r="10" spans="1:2" ht="14.25">
       <c r="A10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>537</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>341</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4176,14 +4182,6 @@
       </c>
       <c r="B22" s="3" t="s">
         <v>171</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4371,42 +4369,42 @@
     </row>
     <row r="17" spans="1:2" ht="14.25">
       <c r="A17" t="s">
+        <v>362</v>
+      </c>
+      <c r="B17" t="s">
         <v>363</v>
-      </c>
-      <c r="B17" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25">
       <c r="A18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>542</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>543</v>
       </c>
     </row>
   </sheetData>
@@ -4439,10 +4437,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4495,18 +4493,18 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25">
       <c r="A10" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4527,26 +4525,26 @@
     </row>
     <row r="14" spans="1:2" ht="14.25">
       <c r="A14" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B14" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>533</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="14.25">
       <c r="A16" t="s">
+        <v>530</v>
+      </c>
+      <c r="B16" t="s">
         <v>531</v>
-      </c>
-      <c r="B16" t="s">
-        <v>532</v>
       </c>
     </row>
   </sheetData>

--- a/词条标签对照表.xlsx
+++ b/词条标签对照表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数学" sheetId="17" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="552">
   <si>
     <t>epsilon符号</t>
   </si>
@@ -1675,6 +1675,18 @@
   </si>
   <si>
     <t>刚体的平面运动方程</t>
+  </si>
+  <si>
+    <t>平面波</t>
+  </si>
+  <si>
+    <t>PWave</t>
+  </si>
+  <si>
+    <t>导数与差分</t>
+  </si>
+  <si>
+    <t>DerDif</t>
   </si>
 </sst>
 </file>
@@ -2179,8 +2191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2594,11 +2606,11 @@
       <c r="B16" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>104</v>
+      <c r="C16" t="s">
+        <v>550</v>
+      </c>
+      <c r="D16" t="s">
+        <v>551</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>158</v>
@@ -2621,10 +2633,10 @@
         <v>117</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>477</v>
@@ -2641,10 +2653,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="C18" s="2" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>157</v>
@@ -2661,10 +2673,10 @@
     </row>
     <row r="19" spans="1:8">
       <c r="C19" s="2" t="s">
-        <v>486</v>
+        <v>42</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>133</v>
@@ -2675,10 +2687,10 @@
     </row>
     <row r="20" spans="1:8">
       <c r="C20" s="2" t="s">
-        <v>91</v>
+        <v>486</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="E20" t="s">
         <v>135</v>
@@ -2689,65 +2701,73 @@
     </row>
     <row r="21" spans="1:8">
       <c r="C21" s="2" t="s">
-        <v>329</v>
+        <v>91</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>330</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="C22" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="C23" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="C23" t="s">
+    <row r="24" spans="1:8">
+      <c r="C24" t="s">
         <v>460</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>452</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="C24" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="C25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="C26" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="C26" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="C27" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>168</v>
+        <v>128</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="C28" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="C29" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3341,8 +3361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
@@ -3445,11 +3465,11 @@
       <c r="D4" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>116</v>
+      <c r="E4" t="s">
+        <v>548</v>
+      </c>
+      <c r="F4" t="s">
+        <v>549</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>334</v>
@@ -3470,6 +3490,12 @@
       </c>
       <c r="D5" s="2" t="s">
         <v>440</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>50</v>

--- a/词条标签对照表.xlsx
+++ b/词条标签对照表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数学" sheetId="17" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="554">
   <si>
     <t>epsilon符号</t>
   </si>
@@ -1687,6 +1687,12 @@
   </si>
   <si>
     <t>DerDif</t>
+  </si>
+  <si>
+    <t>哈密顿正则方程</t>
+  </si>
+  <si>
+    <t>HamCan</t>
   </si>
 </sst>
 </file>
@@ -2191,7 +2197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -4000,10 +4006,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A5:B9"/>
+  <dimension ref="A5:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9296875" defaultRowHeight="13.15"/>
@@ -4042,6 +4048,14 @@
       </c>
       <c r="B9" s="1" t="s">
         <v>391</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="14.25">
+      <c r="A10" t="s">
+        <v>552</v>
+      </c>
+      <c r="B10" t="s">
+        <v>553</v>
       </c>
     </row>
   </sheetData>

--- a/词条标签对照表.xlsx
+++ b/词条标签对照表.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0A7CB3-051B-4783-9630-A810EB27E813}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数学" sheetId="17" r:id="rId1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="556">
   <si>
     <t>epsilon符号</t>
   </si>
@@ -1693,6 +1694,12 @@
   </si>
   <si>
     <t>HamCan</t>
+  </si>
+  <si>
+    <t>数值积分（梯形法）</t>
+  </si>
+  <si>
+    <t>NumInt</t>
   </si>
 </sst>
 </file>
@@ -3815,10 +3822,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA727655-9C2D-40D4-B0BD-5B356A822265}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3937,65 +3944,73 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="B15" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="10" t="s">
         <v>514</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B16" s="10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>487</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>491</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>492</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>538</v>
-      </c>
-      <c r="B24" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
+        <v>538</v>
+      </c>
+      <c r="B25" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
         <v>525</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>526</v>
       </c>
     </row>
@@ -4008,7 +4023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A5:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>

--- a/词条标签对照表.xlsx
+++ b/词条标签对照表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0A7CB3-051B-4783-9630-A810EB27E813}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3EFB00-E0FF-4408-9FFA-CC11EB4343FF}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数学" sheetId="17" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="560">
   <si>
     <t>epsilon符号</t>
   </si>
@@ -841,9 +841,6 @@
     <t>RetPot</t>
   </si>
   <si>
-    <t>PTable</t>
-  </si>
-  <si>
     <t>多元微积分</t>
   </si>
   <si>
@@ -1700,6 +1697,21 @@
   </si>
   <si>
     <t>NumInt</t>
+  </si>
+  <si>
+    <t>Ptable</t>
+  </si>
+  <si>
+    <t>闭合轨道的条件</t>
+  </si>
+  <si>
+    <t>ClsOrb</t>
+  </si>
+  <si>
+    <t>拉普拉斯—龙格—楞次矢量</t>
+  </si>
+  <si>
+    <t>LRLvec</t>
   </si>
 </sst>
 </file>
@@ -2205,7 +2217,7 @@
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2220,19 +2232,19 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>381</v>
-      </c>
       <c r="G1" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K1" s="5"/>
     </row>
@@ -2256,24 +2268,24 @@
         <v>161</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>272</v>
-      </c>
       <c r="I2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="J2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>62</v>
@@ -2282,22 +2294,22 @@
         <v>59</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="J3" t="s">
         <v>528</v>
-      </c>
-      <c r="J3" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2308,7 +2320,7 @@
         <v>56</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>48</v>
@@ -2320,10 +2332,10 @@
         <v>138</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2331,13 +2343,13 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>384</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>140</v>
@@ -2346,15 +2358,15 @@
         <v>141</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>155</v>
@@ -2372,15 +2384,15 @@
         <v>70</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>93</v>
@@ -2392,21 +2404,21 @@
         <v>85</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="F7" t="s">
         <v>475</v>
       </c>
-      <c r="F7" t="s">
-        <v>476</v>
-      </c>
       <c r="G7" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>436</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>108</v>
@@ -2424,7 +2436,7 @@
         <v>69</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>148</v>
@@ -2432,7 +2444,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>107</v>
@@ -2470,7 +2482,7 @@
         <v>99</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>146</v>
@@ -2490,19 +2502,19 @@
         <v>52</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>102</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>147</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>148</v>
@@ -2510,10 +2522,10 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>53</v>
@@ -2522,24 +2534,24 @@
         <v>54</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>139</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>95</v>
@@ -2548,27 +2560,27 @@
         <v>98</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>454</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>149</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B14" t="s">
         <v>545</v>
       </c>
-      <c r="B14" t="s">
-        <v>546</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>111</v>
@@ -2588,16 +2600,16 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>160</v>
@@ -2606,24 +2618,24 @@
         <v>71</v>
       </c>
       <c r="G15" t="s">
+        <v>517</v>
+      </c>
+      <c r="H15" t="s">
         <v>518</v>
-      </c>
-      <c r="H15" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C16" t="s">
+        <v>549</v>
+      </c>
+      <c r="D16" t="s">
         <v>550</v>
-      </c>
-      <c r="D16" t="s">
-        <v>551</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>158</v>
@@ -2632,15 +2644,15 @@
         <v>159</v>
       </c>
       <c r="G16" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H16" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>117</v>
@@ -2652,13 +2664,13 @@
         <v>104</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>478</v>
-      </c>
       <c r="G17" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>154</v>
@@ -2678,10 +2690,10 @@
         <v>132</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2700,7 +2712,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="C20" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>49</v>
@@ -2722,26 +2734,26 @@
     </row>
     <row r="22" spans="1:8">
       <c r="C22" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="C23" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D23" t="s">
         <v>448</v>
-      </c>
-      <c r="D23" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="C24" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2786,7 +2798,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2819,8 +2831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2838,7 +2850,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B2" t="s">
         <v>191</v>
@@ -2846,10 +2858,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B3" t="s">
         <v>366</v>
-      </c>
-      <c r="B3" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2870,18 +2882,18 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2897,7 +2909,7 @@
         <v>220</v>
       </c>
       <c r="B9" t="s">
-        <v>269</v>
+        <v>555</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2910,18 +2922,18 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>337</v>
+      </c>
+      <c r="B11" t="s">
         <v>338</v>
-      </c>
-      <c r="B11" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>335</v>
+      </c>
+      <c r="B12" t="s">
         <v>336</v>
-      </c>
-      <c r="B12" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2929,20 +2941,20 @@
         <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B15" t="s">
         <v>239</v>
@@ -2950,7 +2962,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B16" t="s">
         <v>240</v>
@@ -2990,10 +3002,10 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3022,58 +3034,58 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B25" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
+        <v>277</v>
+      </c>
+      <c r="B26" t="s">
         <v>278</v>
-      </c>
-      <c r="B26" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
+        <v>275</v>
+      </c>
+      <c r="B27" t="s">
         <v>276</v>
-      </c>
-      <c r="B27" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B28" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B29" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B30" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
+        <v>400</v>
+      </c>
+      <c r="B31" t="s">
         <v>401</v>
-      </c>
-      <c r="B31" t="s">
-        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -3093,10 +3105,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B1" t="s">
         <v>376</v>
-      </c>
-      <c r="B1" t="s">
-        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -3179,7 +3191,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -3284,7 +3296,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>84</v>
@@ -3359,10 +3371,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B1" t="s">
         <v>306</v>
-      </c>
-      <c r="B1" t="s">
-        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -3374,8 +3386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
@@ -3386,7 +3398,7 @@
     <col min="4" max="4" width="9.1328125" style="2"/>
     <col min="5" max="5" width="18.19921875" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.1328125" style="2"/>
-    <col min="7" max="7" width="20.53125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23.796875" style="2" customWidth="1"/>
     <col min="8" max="8" width="9.1328125" style="2"/>
     <col min="9" max="9" width="13.73046875" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9.1328125" style="2"/>
@@ -3394,16 +3406,16 @@
   <sheetData>
     <row r="1" spans="1:10" ht="14.25">
       <c r="A1" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="G1" s="5" t="s">
         <v>410</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>411</v>
       </c>
       <c r="I1" s="5"/>
     </row>
@@ -3415,22 +3427,22 @@
         <v>75</v>
       </c>
       <c r="C2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>470</v>
-      </c>
       <c r="E2" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>206</v>
@@ -3441,68 +3453,68 @@
     </row>
     <row r="3" spans="1:10" ht="14.25">
       <c r="A3" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>126</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="H3" t="s">
         <v>332</v>
-      </c>
-      <c r="H3" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.25">
       <c r="A4" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>429</v>
-      </c>
       <c r="C4" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>316</v>
-      </c>
       <c r="E4" t="s">
+        <v>547</v>
+      </c>
+      <c r="F4" t="s">
         <v>548</v>
       </c>
-      <c r="F4" t="s">
-        <v>549</v>
-      </c>
       <c r="G4" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>439</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>440</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>115</v>
@@ -3519,90 +3531,90 @@
     </row>
     <row r="6" spans="1:10" ht="14.25">
       <c r="A6" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G6" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>484</v>
       </c>
-      <c r="H6" s="14" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+    </row>
+    <row r="7" spans="1:10" ht="14.25">
       <c r="A7" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>186</v>
+      <c r="G7" t="s">
+        <v>558</v>
+      </c>
+      <c r="H7" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>322</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>124</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25">
       <c r="A10" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>32</v>
@@ -3611,35 +3623,41 @@
         <v>44</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25">
       <c r="A11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>304</v>
+      <c r="G11" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25">
       <c r="A12" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>451</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>256</v>
@@ -3647,13 +3665,13 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>255</v>
@@ -3661,7 +3679,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>45</v>
@@ -3675,52 +3693,52 @@
     </row>
     <row r="15" spans="1:10" ht="14.25">
       <c r="A15" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C15" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D15" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.25">
       <c r="A17" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C17" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.25">
       <c r="A18" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>162</v>
@@ -3731,10 +3749,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3755,7 +3773,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>127</v>
@@ -3787,26 +3805,26 @@
     </row>
     <row r="26" spans="1:4" ht="14.25">
       <c r="A26" t="s">
+        <v>393</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.25">
       <c r="A28" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B28" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="14.25">
@@ -3824,8 +3842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA727655-9C2D-40D4-B0BD-5B356A822265}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3835,60 +3853,60 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>493</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>507</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>498</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>496</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>156</v>
@@ -3896,63 +3914,63 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="10" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>500</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>503</v>
+      </c>
+      <c r="B11" t="s">
         <v>504</v>
-      </c>
-      <c r="B11" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>502</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
+        <v>510</v>
+      </c>
+      <c r="B13" t="s">
         <v>511</v>
-      </c>
-      <c r="B13" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="B14" t="s">
         <v>520</v>
-      </c>
-      <c r="B14" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="B15" t="s">
         <v>554</v>
-      </c>
-      <c r="B15" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>90</v>
@@ -3960,15 +3978,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>444</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>90</v>
@@ -3976,42 +3994,42 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>486</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>487</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>489</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
+        <v>490</v>
+      </c>
+      <c r="B21" t="s">
         <v>491</v>
-      </c>
-      <c r="B21" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
+        <v>537</v>
+      </c>
+      <c r="B25" t="s">
         <v>538</v>
-      </c>
-      <c r="B25" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
+        <v>524</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>525</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -4021,10 +4039,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A5:B10"/>
+  <dimension ref="A5:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9296875" defaultRowHeight="13.15"/>
@@ -4035,10 +4053,10 @@
   <sheetData>
     <row r="5" spans="1:2" ht="14.25">
       <c r="A5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4051,26 +4069,34 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25">
       <c r="A10" t="s">
+        <v>551</v>
+      </c>
+      <c r="B10" t="s">
         <v>552</v>
       </c>
-      <c r="B10" t="s">
-        <v>553</v>
+    </row>
+    <row r="11" spans="1:2" ht="14.25">
+      <c r="A11" t="s">
+        <v>556</v>
+      </c>
+      <c r="B11" t="s">
+        <v>557</v>
       </c>
     </row>
   </sheetData>
@@ -4121,26 +4147,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>430</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4153,18 +4179,18 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4193,26 +4219,26 @@
     </row>
     <row r="10" spans="1:2" ht="14.25">
       <c r="A10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>536</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4296,10 +4322,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4312,10 +4338,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4424,42 +4450,42 @@
     </row>
     <row r="17" spans="1:2" ht="14.25">
       <c r="A17" t="s">
+        <v>361</v>
+      </c>
+      <c r="B17" t="s">
         <v>362</v>
-      </c>
-      <c r="B17" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25">
       <c r="A18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B18" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>541</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>542</v>
       </c>
     </row>
   </sheetData>
@@ -4492,10 +4518,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4516,7 +4542,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>217</v>
@@ -4524,7 +4550,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>213</v>
@@ -4532,7 +4558,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>214</v>
@@ -4540,7 +4566,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>212</v>
@@ -4548,23 +4574,23 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25">
       <c r="A10" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>263</v>
@@ -4572,7 +4598,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>264</v>
@@ -4580,26 +4606,26 @@
     </row>
     <row r="14" spans="1:2" ht="14.25">
       <c r="A14" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B14" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>532</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="14.25">
       <c r="A16" t="s">
+        <v>529</v>
+      </c>
+      <c r="B16" t="s">
         <v>530</v>
-      </c>
-      <c r="B16" t="s">
-        <v>531</v>
       </c>
     </row>
   </sheetData>

--- a/词条标签对照表.xlsx
+++ b/词条标签对照表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3EFB00-E0FF-4408-9FFA-CC11EB4343FF}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E7A209-35C9-428D-AA9A-ED7DEF46D2E6}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="562">
   <si>
     <t>epsilon符号</t>
   </si>
@@ -622,9 +622,6 @@
     <t>BioSav</t>
   </si>
   <si>
-    <t>比耐公式</t>
-  </si>
-  <si>
     <t>Binet</t>
   </si>
   <si>
@@ -1712,6 +1709,15 @@
   </si>
   <si>
     <t>LRLvec</t>
+  </si>
+  <si>
+    <t>中心力场问题</t>
+  </si>
+  <si>
+    <t>CenFrc</t>
+  </si>
+  <si>
+    <t>轨道方程 比耐公式</t>
   </si>
 </sst>
 </file>
@@ -2217,7 +2223,7 @@
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2232,19 +2238,19 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>380</v>
-      </c>
       <c r="G1" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="K1" s="5"/>
     </row>
@@ -2268,24 +2274,24 @@
         <v>161</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>271</v>
-      </c>
       <c r="I2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="J2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>62</v>
@@ -2294,22 +2300,22 @@
         <v>59</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="J3" t="s">
         <v>527</v>
-      </c>
-      <c r="J3" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2320,7 +2326,7 @@
         <v>56</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>48</v>
@@ -2332,10 +2338,10 @@
         <v>138</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2343,13 +2349,13 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>140</v>
@@ -2358,15 +2364,15 @@
         <v>141</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>155</v>
@@ -2384,15 +2390,15 @@
         <v>70</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>93</v>
@@ -2404,21 +2410,21 @@
         <v>85</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F7" t="s">
         <v>474</v>
       </c>
-      <c r="F7" t="s">
-        <v>475</v>
-      </c>
       <c r="G7" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>435</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>108</v>
@@ -2436,7 +2442,7 @@
         <v>69</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>148</v>
@@ -2444,7 +2450,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>107</v>
@@ -2482,7 +2488,7 @@
         <v>99</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>146</v>
@@ -2502,19 +2508,19 @@
         <v>52</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>102</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>147</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>148</v>
@@ -2522,10 +2528,10 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>53</v>
@@ -2534,24 +2540,24 @@
         <v>54</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>139</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>95</v>
@@ -2560,27 +2566,27 @@
         <v>98</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>452</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>453</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>149</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B14" t="s">
         <v>544</v>
       </c>
-      <c r="B14" t="s">
-        <v>545</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>111</v>
@@ -2600,16 +2606,16 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>403</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>160</v>
@@ -2618,24 +2624,24 @@
         <v>71</v>
       </c>
       <c r="G15" t="s">
+        <v>516</v>
+      </c>
+      <c r="H15" t="s">
         <v>517</v>
-      </c>
-      <c r="H15" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C16" t="s">
+        <v>548</v>
+      </c>
+      <c r="D16" t="s">
         <v>549</v>
-      </c>
-      <c r="D16" t="s">
-        <v>550</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>158</v>
@@ -2644,15 +2650,15 @@
         <v>159</v>
       </c>
       <c r="G16" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H16" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>117</v>
@@ -2664,13 +2670,13 @@
         <v>104</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>477</v>
-      </c>
       <c r="G17" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>154</v>
@@ -2690,10 +2696,10 @@
         <v>132</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2712,7 +2718,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="C20" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>49</v>
@@ -2734,26 +2740,26 @@
     </row>
     <row r="22" spans="1:8">
       <c r="C22" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="C23" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D23" t="s">
         <v>447</v>
-      </c>
-      <c r="D23" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="C24" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2798,7 +2804,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2850,7 +2856,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B2" t="s">
         <v>191</v>
@@ -2858,82 +2864,82 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3" t="s">
         <v>365</v>
-      </c>
-      <c r="B3" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" t="s">
         <v>204</v>
-      </c>
-      <c r="B8" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B10" t="s">
         <v>235</v>
-      </c>
-      <c r="B10" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>336</v>
+      </c>
+      <c r="B11" t="s">
         <v>337</v>
-      </c>
-      <c r="B11" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>334</v>
+      </c>
+      <c r="B12" t="s">
         <v>335</v>
-      </c>
-      <c r="B12" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2941,151 +2947,151 @@
         <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
+        <v>240</v>
+      </c>
+      <c r="B17" t="s">
         <v>241</v>
-      </c>
-      <c r="B17" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>242</v>
+      </c>
+      <c r="B18" t="s">
         <v>243</v>
-      </c>
-      <c r="B18" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>244</v>
+      </c>
+      <c r="B19" t="s">
         <v>245</v>
-      </c>
-      <c r="B19" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
+        <v>246</v>
+      </c>
+      <c r="B20" t="s">
         <v>247</v>
-      </c>
-      <c r="B20" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B21" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
+        <v>250</v>
+      </c>
+      <c r="B22" t="s">
         <v>251</v>
-      </c>
-      <c r="B22" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B25" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
+        <v>276</v>
+      </c>
+      <c r="B26" t="s">
         <v>277</v>
-      </c>
-      <c r="B26" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
+        <v>274</v>
+      </c>
+      <c r="B27" t="s">
         <v>275</v>
-      </c>
-      <c r="B27" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B28" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B29" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B30" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
+        <v>399</v>
+      </c>
+      <c r="B31" t="s">
         <v>400</v>
-      </c>
-      <c r="B31" t="s">
-        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -3105,10 +3111,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B1" t="s">
         <v>375</v>
-      </c>
-      <c r="B1" t="s">
-        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -3191,7 +3197,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -3296,7 +3302,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>84</v>
@@ -3371,10 +3377,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B1" t="s">
         <v>305</v>
-      </c>
-      <c r="B1" t="s">
-        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -3386,8 +3392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
@@ -3406,16 +3412,16 @@
   <sheetData>
     <row r="1" spans="1:10" ht="14.25">
       <c r="A1" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="G1" s="5" t="s">
         <v>409</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>410</v>
       </c>
       <c r="I1" s="5"/>
     </row>
@@ -3427,94 +3433,94 @@
         <v>75</v>
       </c>
       <c r="C2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>469</v>
-      </c>
       <c r="E2" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>482</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>467</v>
+        <v>559</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>304</v>
+        <v>560</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="14.25">
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>126</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>480</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="H3" t="s">
-        <v>332</v>
+        <v>479</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.25">
       <c r="A4" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>428</v>
-      </c>
       <c r="C4" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>315</v>
-      </c>
       <c r="E4" t="s">
+        <v>546</v>
+      </c>
+      <c r="F4" t="s">
         <v>547</v>
       </c>
-      <c r="F4" t="s">
-        <v>548</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
+      </c>
+      <c r="H4" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>438</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>439</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>115</v>
@@ -3522,99 +3528,99 @@
       <c r="F5" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>51</v>
+      <c r="G5" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.25">
       <c r="A6" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>456</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>483</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="14.25">
+        <v>455</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="G7" t="s">
-        <v>558</v>
-      </c>
-      <c r="H7" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="G7" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="14.25">
       <c r="A8" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>186</v>
+      <c r="G8" t="s">
+        <v>557</v>
+      </c>
+      <c r="H8" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>124</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25">
       <c r="A10" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>32</v>
@@ -3623,63 +3629,69 @@
         <v>44</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25">
       <c r="A11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>303</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25">
       <c r="A12" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>450</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>45</v>
@@ -3693,52 +3705,52 @@
     </row>
     <row r="15" spans="1:10" ht="14.25">
       <c r="A15" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C15" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D15" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.25">
       <c r="A17" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C17" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.25">
       <c r="A18" s="10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>162</v>
@@ -3749,10 +3761,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>404</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3773,7 +3785,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>127</v>
@@ -3805,26 +3817,26 @@
     </row>
     <row r="26" spans="1:4" ht="14.25">
       <c r="A26" t="s">
+        <v>392</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.25">
       <c r="A28" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B28" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="14.25">
@@ -3853,60 +3865,60 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>492</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>506</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>497</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>495</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>156</v>
@@ -3914,63 +3926,63 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="10" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>499</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>502</v>
+      </c>
+      <c r="B11" t="s">
         <v>503</v>
-      </c>
-      <c r="B11" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>501</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
+        <v>509</v>
+      </c>
+      <c r="B13" t="s">
         <v>510</v>
-      </c>
-      <c r="B13" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="B14" t="s">
         <v>519</v>
-      </c>
-      <c r="B14" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="B15" t="s">
         <v>553</v>
-      </c>
-      <c r="B15" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>90</v>
@@ -3978,15 +3990,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>90</v>
@@ -3994,42 +4006,42 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>485</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>486</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>488</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
+        <v>489</v>
+      </c>
+      <c r="B21" t="s">
         <v>490</v>
-      </c>
-      <c r="B21" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
+        <v>536</v>
+      </c>
+      <c r="B25" t="s">
         <v>537</v>
-      </c>
-      <c r="B25" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
+        <v>523</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>524</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>525</v>
       </c>
     </row>
   </sheetData>
@@ -4053,50 +4065,50 @@
   <sheetData>
     <row r="5" spans="1:2" ht="14.25">
       <c r="A5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25">
       <c r="A10" t="s">
+        <v>550</v>
+      </c>
+      <c r="B10" t="s">
         <v>551</v>
-      </c>
-      <c r="B10" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14.25">
       <c r="A11" t="s">
+        <v>555</v>
+      </c>
+      <c r="B11" t="s">
         <v>556</v>
-      </c>
-      <c r="B11" t="s">
-        <v>557</v>
       </c>
     </row>
   </sheetData>
@@ -4147,26 +4159,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>429</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4179,66 +4191,66 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25">
       <c r="A10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>535</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>339</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4322,10 +4334,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4338,10 +4350,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4354,138 +4366,138 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25">
       <c r="A17" t="s">
+        <v>360</v>
+      </c>
+      <c r="B17" t="s">
         <v>361</v>
-      </c>
-      <c r="B17" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25">
       <c r="A18" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B18" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>540</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>541</v>
       </c>
     </row>
   </sheetData>
@@ -4510,18 +4522,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4534,98 +4546,98 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25">
       <c r="A10" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="14.25">
       <c r="A14" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B14" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>531</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="14.25">
       <c r="A16" t="s">
+        <v>528</v>
+      </c>
+      <c r="B16" t="s">
         <v>529</v>
-      </c>
-      <c r="B16" t="s">
-        <v>530</v>
       </c>
     </row>
   </sheetData>

--- a/词条标签对照表.xlsx
+++ b/词条标签对照表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E7A209-35C9-428D-AA9A-ED7DEF46D2E6}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA0552B-60CB-4836-8F64-D45E7689E786}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数学" sheetId="17" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="564">
   <si>
     <t>epsilon符号</t>
   </si>
@@ -1718,6 +1718,12 @@
   </si>
   <si>
     <t>轨道方程 比耐公式</t>
+  </si>
+  <si>
+    <t>抛物线的三中定义</t>
+  </si>
+  <si>
+    <t>Para3</t>
   </si>
 </sst>
 </file>
@@ -2220,10 +2226,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2580,10 +2586,10 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="B14" t="s">
-        <v>544</v>
+        <v>562</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>563</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>419</v>
@@ -2606,10 +2612,10 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>89</v>
+        <v>543</v>
+      </c>
+      <c r="B15" t="s">
+        <v>544</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>401</v>
@@ -2632,10 +2638,10 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="2" t="s">
-        <v>293</v>
+        <v>457</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
         <v>548</v>
@@ -2658,10 +2664,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>103</v>
@@ -2683,6 +2689,12 @@
       </c>
     </row>
     <row r="18" spans="1:8">
+      <c r="A18" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="C18" s="2" t="s">
         <v>112</v>
       </c>
@@ -2802,16 +2814,16 @@
         <v>169</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="1" t="s">
+    <row r="36" spans="1:6">
+      <c r="A36" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2819,13 +2831,13 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-    </row>
     <row r="48" spans="1:6">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3392,8 +3404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
@@ -3609,10 +3621,10 @@
         <v>124</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>185</v>
+        <v>561</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25">
@@ -3629,10 +3641,10 @@
         <v>44</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25">
@@ -3649,10 +3661,10 @@
         <v>302</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25">
@@ -3669,10 +3681,10 @@
         <v>255</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>561</v>
+        <v>189</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:10">

--- a/词条标签对照表.xlsx
+++ b/词条标签对照表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA0552B-60CB-4836-8F64-D45E7689E786}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5D4B94-C7EF-46C4-9E13-7B7E1072C501}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1720,10 +1720,10 @@
     <t>轨道方程 比耐公式</t>
   </si>
   <si>
-    <t>抛物线的三中定义</t>
-  </si>
-  <si>
     <t>Para3</t>
+  </si>
+  <si>
+    <t>抛物线的三种定义</t>
   </si>
 </sst>
 </file>
@@ -2229,7 +2229,7 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2586,10 +2586,10 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>562</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>563</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>419</v>

--- a/词条标签对照表.xlsx
+++ b/词条标签对照表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5D4B94-C7EF-46C4-9E13-7B7E1072C501}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1903B58-3D7E-4607-9006-5B5897B2D95F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数学" sheetId="17" r:id="rId1"/>
@@ -595,18 +595,9 @@
     <t>Keple1</t>
   </si>
   <si>
-    <t>开普勒第二定律的证明</t>
-  </si>
-  <si>
     <t>Keple2</t>
   </si>
   <si>
-    <t>开普勒第三定律的证明</t>
-  </si>
-  <si>
-    <t>Keple3</t>
-  </si>
-  <si>
     <t>ISW</t>
   </si>
   <si>
@@ -1724,6 +1715,15 @@
   </si>
   <si>
     <t>抛物线的三种定义</t>
+  </si>
+  <si>
+    <t>开普勒第二和第三定律的证明</t>
+  </si>
+  <si>
+    <t>散射</t>
+  </si>
+  <si>
+    <t>Scater</t>
   </si>
 </sst>
 </file>
@@ -2228,7 +2228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -2244,19 +2244,19 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="5" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="K1" s="5"/>
     </row>
@@ -2280,24 +2280,24 @@
         <v>161</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="J2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>62</v>
@@ -2306,22 +2306,22 @@
         <v>59</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="J3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2332,7 +2332,7 @@
         <v>56</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>48</v>
@@ -2344,10 +2344,10 @@
         <v>138</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2355,13 +2355,13 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>140</v>
@@ -2370,15 +2370,15 @@
         <v>141</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>155</v>
@@ -2396,15 +2396,15 @@
         <v>70</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>93</v>
@@ -2416,21 +2416,21 @@
         <v>85</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>108</v>
@@ -2448,7 +2448,7 @@
         <v>69</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>148</v>
@@ -2456,7 +2456,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>107</v>
@@ -2494,7 +2494,7 @@
         <v>99</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>146</v>
@@ -2514,19 +2514,19 @@
         <v>52</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>102</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>147</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>148</v>
@@ -2534,10 +2534,10 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B12" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>53</v>
@@ -2546,24 +2546,24 @@
         <v>54</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>139</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>95</v>
@@ -2572,27 +2572,27 @@
         <v>98</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>149</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>111</v>
@@ -2612,16 +2612,16 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B15" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>160</v>
@@ -2630,24 +2630,24 @@
         <v>71</v>
       </c>
       <c r="G15" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="H15" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C16" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D16" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>158</v>
@@ -2656,15 +2656,15 @@
         <v>159</v>
       </c>
       <c r="G16" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="H16" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>114</v>
@@ -2676,13 +2676,13 @@
         <v>104</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>154</v>
@@ -2690,7 +2690,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>117</v>
@@ -2708,10 +2708,10 @@
         <v>132</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2730,7 +2730,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="C20" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>49</v>
@@ -2752,26 +2752,26 @@
     </row>
     <row r="22" spans="1:8">
       <c r="C22" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="C23" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D23" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="C24" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2816,7 +2816,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2868,90 +2868,90 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B6" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B9" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B10" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B11" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B12" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2959,151 +2959,151 @@
         <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B14" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B15" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B16" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B17" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B18" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B19" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B20" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B21" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B22" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B23" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B24" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B25" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B26" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B27" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B28" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B29" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B30" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B31" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -3123,10 +3123,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -3149,10 +3149,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -3209,7 +3209,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -3314,7 +3314,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>84</v>
@@ -3389,10 +3389,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -3404,8 +3404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
@@ -3424,16 +3424,16 @@
   <sheetData>
     <row r="1" spans="1:10" ht="14.25">
       <c r="A1" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>406</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>409</v>
       </c>
       <c r="I1" s="5"/>
     </row>
@@ -3445,94 +3445,94 @@
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>126</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.25">
       <c r="A4" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E4" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="F4" t="s">
-        <v>547</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="H4" t="s">
-        <v>331</v>
+        <v>544</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>115</v>
@@ -3540,82 +3540,82 @@
       <c r="F5" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>333</v>
+      <c r="G5" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.25">
       <c r="A6" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>455</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>51</v>
+        <v>452</v>
+      </c>
+      <c r="G6" t="s">
+        <v>554</v>
+      </c>
+      <c r="H6" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="14.25">
+        <v>315</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="G8" t="s">
-        <v>557</v>
-      </c>
-      <c r="H8" t="s">
-        <v>558</v>
+        <v>317</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>124</v>
@@ -3624,15 +3624,15 @@
         <v>561</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25">
       <c r="A10" s="10" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>32</v>
@@ -3641,69 +3641,69 @@
         <v>44</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>185</v>
+        <v>562</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>186</v>
+        <v>563</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25">
       <c r="A11" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B11" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>188</v>
+        <v>327</v>
+      </c>
+      <c r="H11" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25">
       <c r="A12" s="10" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>189</v>
+        <v>329</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>190</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>45</v>
@@ -3717,52 +3717,52 @@
     </row>
     <row r="15" spans="1:10" ht="14.25">
       <c r="A15" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C15" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D15" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.25">
       <c r="A17" s="4" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C17" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.25">
       <c r="A18" s="10" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>162</v>
@@ -3773,10 +3773,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3797,7 +3797,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>127</v>
@@ -3829,26 +3829,26 @@
     </row>
     <row r="26" spans="1:4" ht="14.25">
       <c r="A26" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="14" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.25">
       <c r="A28" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B28" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="14.25">
@@ -3877,60 +3877,60 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>156</v>
@@ -3938,63 +3938,63 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="10" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="10" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B11" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="10" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B13" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="10" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B14" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="10" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B15" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="10" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>90</v>
@@ -4002,15 +4002,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>90</v>
@@ -4018,42 +4018,42 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B21" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B25" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
   </sheetData>
@@ -4077,50 +4077,50 @@
   <sheetData>
     <row r="5" spans="1:2" ht="14.25">
       <c r="A5" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25">
       <c r="A10" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B10" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14.25">
       <c r="A11" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B11" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -4171,26 +4171,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4203,66 +4203,66 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25">
       <c r="A10" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B10" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4346,10 +4346,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4362,154 +4362,154 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25">
       <c r="A17" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B17" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25">
       <c r="A18" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B18" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="B21" s="18" t="s">
         <v>538</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
   </sheetData>
@@ -4534,18 +4534,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4558,98 +4558,98 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25">
       <c r="A10" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B10" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="14.25">
       <c r="A14" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B14" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="14.25">
       <c r="A16" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B16" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>

--- a/词条标签对照表.xlsx
+++ b/词条标签对照表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1903B58-3D7E-4607-9006-5B5897B2D95F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C07AE45-7020-4EAE-9E8E-EE4F76031415}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数学" sheetId="17" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="566">
   <si>
     <t>epsilon符号</t>
   </si>
@@ -1724,6 +1724,12 @@
   </si>
   <si>
     <t>Scater</t>
+  </si>
+  <si>
+    <t>电容</t>
+  </si>
+  <si>
+    <t>Cpctor</t>
   </si>
 </sst>
 </file>
@@ -3404,8 +3410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
@@ -4331,10 +4337,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9296875" defaultRowHeight="13.15"/>
@@ -4344,171 +4350,179 @@
     <col min="3" max="16384" width="8.9296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>294</v>
+    <row r="1" spans="1:2" ht="14.25">
+      <c r="A1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B1" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>181</v>
+        <v>293</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>182</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>295</v>
+        <v>181</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>296</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>191</v>
+        <v>295</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>192</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>264</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="14.25">
-      <c r="A17" t="s">
-        <v>357</v>
-      </c>
-      <c r="B17" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25">
       <c r="A18" t="s">
+        <v>357</v>
+      </c>
+      <c r="B18" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14.25">
+      <c r="A19" t="s">
         <v>368</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="18" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="18" t="s">
         <v>535</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B22" s="18" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>537</v>
       </c>
     </row>

--- a/词条标签对照表.xlsx
+++ b/词条标签对照表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C07AE45-7020-4EAE-9E8E-EE4F76031415}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22133CB-BD2F-40C2-9BB4-EC6C00841BEE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="574">
   <si>
     <t>epsilon符号</t>
   </si>
@@ -1730,6 +1730,30 @@
   </si>
   <si>
     <t>Cpctor</t>
+  </si>
+  <si>
+    <t>QEng</t>
+  </si>
+  <si>
+    <t>电场的能量</t>
+  </si>
+  <si>
+    <t>EEng</t>
+  </si>
+  <si>
+    <t>电势 电势能</t>
+  </si>
+  <si>
+    <t>导体</t>
+  </si>
+  <si>
+    <t>Cndctr</t>
+  </si>
+  <si>
+    <t>安培环路定理</t>
+  </si>
+  <si>
+    <t>AmpLaw</t>
   </si>
 </sst>
 </file>
@@ -4337,10 +4361,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9296875" defaultRowHeight="13.15"/>
@@ -4352,177 +4376,209 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14.25">
       <c r="A1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14.25">
+      <c r="A2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14.25">
+      <c r="A3" t="s">
         <v>564</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" t="s">
         <v>565</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>198</v>
+        <v>295</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>199</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>214</v>
+        <v>572</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>215</v>
+        <v>573</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14.25">
+      <c r="A11" t="s">
+        <v>567</v>
+      </c>
+      <c r="B11" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>261</v>
+        <v>219</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>262</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="14.25">
-      <c r="A18" t="s">
-        <v>357</v>
-      </c>
-      <c r="B18" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="14.25">
-      <c r="A19" t="s">
-        <v>368</v>
-      </c>
-      <c r="B19" t="s">
-        <v>367</v>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14.25">
+      <c r="A22" t="s">
+        <v>357</v>
+      </c>
+      <c r="B22" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14.25">
+      <c r="A23" t="s">
+        <v>368</v>
+      </c>
+      <c r="B23" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="18" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="18" t="s">
         <v>535</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B26" s="18" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>537</v>
       </c>
     </row>

--- a/词条标签对照表.xlsx
+++ b/词条标签对照表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22133CB-BD2F-40C2-9BB4-EC6C00841BEE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FF9A33-DEF9-40A9-8679-646D92141D69}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数学" sheetId="17" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="572">
   <si>
     <t>epsilon符号</t>
   </si>
@@ -172,9 +172,6 @@
     <t>Fwork</t>
   </si>
   <si>
-    <t>CMVG</t>
-  </si>
-  <si>
     <t>Pend</t>
   </si>
   <si>
@@ -235,9 +232,6 @@
     <t>CMAD</t>
   </si>
   <si>
-    <t>CMAG</t>
-  </si>
-  <si>
     <t>CMVD</t>
   </si>
   <si>
@@ -862,18 +856,6 @@
     <t>二项式定理（非整数幂）</t>
   </si>
   <si>
-    <t>匀速圆周运动的速度（几何法）</t>
-  </si>
-  <si>
-    <t>匀速圆周运动的速度（求导法）</t>
-  </si>
-  <si>
-    <t>匀速圆周运动的加速度（几何法）</t>
-  </si>
-  <si>
-    <t>匀速圆周运动的加速度（求导法）</t>
-  </si>
-  <si>
     <t>理想气体（巨正则系综法）</t>
   </si>
   <si>
@@ -1754,6 +1736,18 @@
   </si>
   <si>
     <t>AmpLaw</t>
+  </si>
+  <si>
+    <t>旋度 斯托克斯定理</t>
+  </si>
+  <si>
+    <t>Curl</t>
+  </si>
+  <si>
+    <t>圆周运动的速度</t>
+  </si>
+  <si>
+    <t>圆周运动的加速度</t>
   </si>
 </sst>
 </file>
@@ -1834,7 +1828,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1844,6 +1838,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1890,9 +1890,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1916,6 +1913,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2258,8 +2258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2274,19 +2274,19 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="5" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="K1" s="5"/>
     </row>
@@ -2295,89 +2295,89 @@
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I2" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="J2" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>441</v>
+        <v>436</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>435</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>511</v>
+        <v>506</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>505</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="J3" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>56</v>
       </c>
+      <c r="B4" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2385,363 +2385,363 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="F7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>102</v>
+        <v>51</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B12" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="2" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B15" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G15" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="H15" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="2" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="D16" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G16" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="H16" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>384</v>
+        <v>130</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2752,109 +2752,115 @@
         <v>43</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="C20" s="2" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="C21" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="C22" s="2" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="C23" s="2" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="D23" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="C24" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="C25" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="C26" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="C27" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="C28" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="C29" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2890,98 +2896,98 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B3" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" t="s">
         <v>194</v>
-      </c>
-      <c r="B4" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" t="s">
         <v>195</v>
-      </c>
-      <c r="B5" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B6" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B9" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B11" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B12" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2989,151 +2995,151 @@
         <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B14" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B16" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B18" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B20" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B21" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B22" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
+        <v>253</v>
+      </c>
+      <c r="B23" t="s">
         <v>255</v>
-      </c>
-      <c r="B23" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
+        <v>254</v>
+      </c>
+      <c r="B24" t="s">
         <v>256</v>
-      </c>
-      <c r="B24" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B25" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B26" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B27" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B28" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B29" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B30" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B31" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -3153,10 +3159,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B1" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -3179,10 +3185,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -3239,7 +3245,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -3317,7 +3323,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3330,7 +3336,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>30</v>
@@ -3344,10 +3350,10 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3387,18 +3393,18 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3419,10 +3425,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -3432,10 +3438,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
@@ -3454,215 +3460,215 @@
   <sheetData>
     <row r="1" spans="1:10" ht="14.25">
       <c r="A1" s="8" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:10" ht="14.25">
-      <c r="A2" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>75</v>
+      <c r="A2" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>477</v>
+        <v>459</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>471</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>476</v>
+        <v>306</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>470</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.25">
       <c r="A4" s="2" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>311</v>
+        <v>418</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>305</v>
       </c>
       <c r="E4" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="F4" t="s">
-        <v>544</v>
-      </c>
-      <c r="G4" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="18" t="s">
         <v>50</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>479</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>480</v>
+        <v>114</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.25">
       <c r="A6" s="2" t="s">
-        <v>276</v>
+        <v>570</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>452</v>
+        <v>447</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>446</v>
       </c>
       <c r="G6" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="H6" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="2" t="s">
-        <v>277</v>
+        <v>571</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="2" t="s">
-        <v>278</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="14.25">
+      <c r="A8" s="9" t="s">
+        <v>423</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>67</v>
+        <v>413</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="14.25">
+      <c r="A9" t="s">
+        <v>462</v>
+      </c>
+      <c r="B9" t="s">
+        <v>461</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>187</v>
-      </c>
     </row>
     <row r="10" spans="1:10" ht="14.25">
-      <c r="A10" s="10" t="s">
-        <v>429</v>
+      <c r="A10" s="9" t="s">
+        <v>439</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>419</v>
+        <v>440</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>32</v>
@@ -3671,166 +3677,166 @@
         <v>44</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25">
-      <c r="A11" t="s">
-        <v>468</v>
-      </c>
-      <c r="B11" t="s">
-        <v>467</v>
+      <c r="A11" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="H11" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="14.25">
-      <c r="A12" s="10" t="s">
-        <v>445</v>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2" t="s">
+        <v>396</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>446</v>
+        <v>45</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
-        <v>340</v>
+        <v>444</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>82</v>
+        <v>317</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
-        <v>402</v>
+        <v>316</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>45</v>
+        <v>315</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25">
-      <c r="A15" s="2" t="s">
-        <v>450</v>
+      <c r="A15" s="4" t="s">
+        <v>456</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>323</v>
+        <v>405</v>
       </c>
       <c r="C15" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="D15" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="2" t="s">
-        <v>322</v>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="14.25">
+      <c r="A16" s="9" t="s">
+        <v>422</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>321</v>
+        <v>421</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.25">
-      <c r="A17" s="4" t="s">
-        <v>462</v>
+      <c r="A17" s="2" t="s">
+        <v>394</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="C17" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="14.25">
-      <c r="A18" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>427</v>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>401</v>
+      <c r="A19" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>47</v>
+      <c r="A21" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>127</v>
+        <v>120</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3841,49 +3847,33 @@
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="2" t="s">
-        <v>122</v>
+    <row r="24" spans="1:4" ht="14.25">
+      <c r="A24" t="s">
+        <v>383</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>123</v>
+        <v>384</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>121</v>
+      <c r="A25" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.25">
       <c r="A26" t="s">
-        <v>389</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="14" t="s">
-        <v>388</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="14.25">
-      <c r="A28" t="s">
-        <v>508</v>
-      </c>
-      <c r="B28" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="14.25">
-      <c r="A47"/>
-      <c r="B47"/>
+        <v>502</v>
+      </c>
+      <c r="B26" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="14.25">
+      <c r="A45"/>
+      <c r="B45"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3907,183 +3897,183 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="10" t="s">
-        <v>539</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>438</v>
+      <c r="A9" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>496</v>
+      <c r="A10" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B11" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="10" t="s">
-        <v>497</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>498</v>
+      <c r="A12" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B13" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="10" t="s">
-        <v>515</v>
+      <c r="A14" s="9" t="s">
+        <v>509</v>
       </c>
       <c r="B14" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="10" t="s">
-        <v>549</v>
+      <c r="A15" s="9" t="s">
+        <v>543</v>
       </c>
       <c r="B15" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="10" t="s">
-        <v>509</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>90</v>
+      <c r="A16" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B21" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B25" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -4107,50 +4097,50 @@
   <sheetData>
     <row r="5" spans="1:2" ht="14.25">
       <c r="A5" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25">
       <c r="A10" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="B10" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14.25">
       <c r="A11" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="B11" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
   </sheetData>
@@ -4177,7 +4167,7 @@
         <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -4201,26 +4191,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>426</v>
+        <v>419</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4233,98 +4223,98 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25">
       <c r="A10" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B10" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -4351,7 +4341,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -4363,7 +4353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -4376,210 +4366,210 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14.25">
       <c r="A1" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="B1" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="B2" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25">
       <c r="A3" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="B3" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14.25">
       <c r="A11" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="B11" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.25">
       <c r="A22" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B22" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14.25">
       <c r="A23" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B23" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>538</v>
+      <c r="A26" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -4604,122 +4594,122 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25">
       <c r="A10" s="1" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B10" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="14.25">
       <c r="A14" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B14" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="14.25">
       <c r="A16" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B16" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
   </sheetData>

--- a/词条标签对照表.xlsx
+++ b/词条标签对照表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FF9A33-DEF9-40A9-8679-646D92141D69}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56CEC7A-70EB-4C98-BC6D-D1A90860542B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -181,9 +181,6 @@
     <t>NLeib</t>
   </si>
   <si>
-    <t>球体的平方反比力</t>
-  </si>
-  <si>
     <t>SphF</t>
   </si>
   <si>
@@ -1748,6 +1745,9 @@
   </si>
   <si>
     <t>圆周运动的加速度</t>
+  </si>
+  <si>
+    <t>球体的引力场</t>
   </si>
 </sst>
 </file>
@@ -2274,19 +2274,19 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>370</v>
-      </c>
       <c r="G1" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K1" s="5"/>
     </row>
@@ -2295,89 +2295,89 @@
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>265</v>
-      </c>
       <c r="I2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="J2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="J3" t="s">
         <v>517</v>
-      </c>
-      <c r="J3" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2385,363 +2385,363 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>373</v>
-      </c>
       <c r="E5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="G5" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F7" t="s">
         <v>464</v>
       </c>
-      <c r="F7" t="s">
-        <v>465</v>
-      </c>
       <c r="G7" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>425</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="G9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>443</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="G14" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B15" t="s">
         <v>534</v>
       </c>
-      <c r="B15" t="s">
-        <v>535</v>
-      </c>
       <c r="C15" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>393</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G15" t="s">
+        <v>506</v>
+      </c>
+      <c r="H15" t="s">
         <v>507</v>
-      </c>
-      <c r="H15" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
+        <v>538</v>
+      </c>
+      <c r="D16" t="s">
         <v>539</v>
       </c>
-      <c r="D16" t="s">
-        <v>540</v>
-      </c>
       <c r="E16" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="G16" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H16" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="E17" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>467</v>
-      </c>
       <c r="G17" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2752,115 +2752,115 @@
         <v>43</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="G19" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="H19" s="11" t="s">
         <v>568</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="C20" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E20" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" t="s">
         <v>133</v>
-      </c>
-      <c r="F20" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="C21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="C22" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="C23" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D23" t="s">
         <v>437</v>
-      </c>
-      <c r="D23" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="C24" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="C25" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="C26" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="C27" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="C28" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="C29" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2896,98 +2896,98 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" t="s">
         <v>170</v>
-      </c>
-      <c r="B1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B3" t="s">
         <v>355</v>
-      </c>
-      <c r="B3" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B8" t="s">
         <v>198</v>
-      </c>
-      <c r="B8" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" t="s">
         <v>229</v>
-      </c>
-      <c r="B10" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>326</v>
+      </c>
+      <c r="B11" t="s">
         <v>327</v>
-      </c>
-      <c r="B11" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>324</v>
+      </c>
+      <c r="B12" t="s">
         <v>325</v>
-      </c>
-      <c r="B12" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2995,151 +2995,151 @@
         <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
+        <v>234</v>
+      </c>
+      <c r="B17" t="s">
         <v>235</v>
-      </c>
-      <c r="B17" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>236</v>
+      </c>
+      <c r="B18" t="s">
         <v>237</v>
-      </c>
-      <c r="B18" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>238</v>
+      </c>
+      <c r="B19" t="s">
         <v>239</v>
-      </c>
-      <c r="B19" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
+        <v>240</v>
+      </c>
+      <c r="B20" t="s">
         <v>241</v>
-      </c>
-      <c r="B20" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
+        <v>244</v>
+      </c>
+      <c r="B22" t="s">
         <v>245</v>
-      </c>
-      <c r="B22" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
+        <v>270</v>
+      </c>
+      <c r="B26" t="s">
         <v>271</v>
-      </c>
-      <c r="B26" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
+        <v>268</v>
+      </c>
+      <c r="B27" t="s">
         <v>269</v>
-      </c>
-      <c r="B27" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B28" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B29" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B30" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
+        <v>389</v>
+      </c>
+      <c r="B31" t="s">
         <v>390</v>
-      </c>
-      <c r="B31" t="s">
-        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -3159,10 +3159,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B1" t="s">
         <v>365</v>
-      </c>
-      <c r="B1" t="s">
-        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -3185,10 +3185,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" t="s">
         <v>187</v>
-      </c>
-      <c r="B1" t="s">
-        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -3245,7 +3245,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -3323,7 +3323,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3336,7 +3336,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>30</v>
@@ -3350,10 +3350,10 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3393,18 +3393,18 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -3425,10 +3425,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1" t="s">
         <v>295</v>
-      </c>
-      <c r="B1" t="s">
-        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -3441,7 +3441,7 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
@@ -3460,215 +3460,215 @@
   <sheetData>
     <row r="1" spans="1:10" ht="14.25">
       <c r="A1" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="G1" s="5" t="s">
         <v>399</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>400</v>
       </c>
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:10" ht="14.25">
       <c r="A2" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>73</v>
-      </c>
       <c r="C2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>459</v>
-      </c>
       <c r="E2" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>472</v>
-      </c>
       <c r="G2" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>551</v>
-      </c>
       <c r="I2" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.25">
       <c r="A4" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>418</v>
-      </c>
       <c r="C4" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>305</v>
-      </c>
       <c r="E4" t="s">
+        <v>536</v>
+      </c>
+      <c r="F4" t="s">
         <v>537</v>
       </c>
-      <c r="F4" t="s">
-        <v>538</v>
-      </c>
       <c r="G4" s="18" t="s">
+        <v>571</v>
+      </c>
+      <c r="H4" s="18" t="s">
         <v>49</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>429</v>
-      </c>
       <c r="E5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="G5" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>473</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.25">
       <c r="A6" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G6" t="s">
+        <v>547</v>
+      </c>
+      <c r="H6" t="s">
         <v>548</v>
-      </c>
-      <c r="H6" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>309</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25">
       <c r="A8" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>311</v>
-      </c>
       <c r="G8" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25">
       <c r="A9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25">
       <c r="A10" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>439</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>440</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>32</v>
@@ -3677,134 +3677,134 @@
         <v>44</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>556</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25">
       <c r="A11" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>293</v>
-      </c>
       <c r="G11" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H11" t="s">
         <v>321</v>
-      </c>
-      <c r="H11" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25">
       <c r="A15" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C15" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D15" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.25">
       <c r="A16" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.25">
       <c r="A17" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>395</v>
-      </c>
       <c r="C17" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3817,58 +3817,58 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.25">
       <c r="A24" t="s">
+        <v>382</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>383</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.25">
       <c r="A26" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B26" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="14.25">
@@ -3897,183 +3897,183 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>482</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>496</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>487</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>485</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>489</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>492</v>
+      </c>
+      <c r="B11" t="s">
         <v>493</v>
-      </c>
-      <c r="B11" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>491</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
+        <v>499</v>
+      </c>
+      <c r="B13" t="s">
         <v>500</v>
-      </c>
-      <c r="B13" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="B14" t="s">
         <v>509</v>
-      </c>
-      <c r="B14" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="B15" t="s">
         <v>543</v>
-      </c>
-      <c r="B15" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>475</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>476</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>478</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
+        <v>479</v>
+      </c>
+      <c r="B21" t="s">
         <v>480</v>
-      </c>
-      <c r="B21" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
+        <v>526</v>
+      </c>
+      <c r="B25" t="s">
         <v>527</v>
-      </c>
-      <c r="B25" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
+        <v>513</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>514</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -4097,50 +4097,50 @@
   <sheetData>
     <row r="5" spans="1:2" ht="14.25">
       <c r="A5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25">
       <c r="A10" t="s">
+        <v>540</v>
+      </c>
+      <c r="B10" t="s">
         <v>541</v>
-      </c>
-      <c r="B10" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14.25">
       <c r="A11" t="s">
+        <v>545</v>
+      </c>
+      <c r="B11" t="s">
         <v>546</v>
-      </c>
-      <c r="B11" t="s">
-        <v>547</v>
       </c>
     </row>
   </sheetData>
@@ -4167,7 +4167,7 @@
         <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -4191,26 +4191,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>419</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4223,98 +4223,98 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25">
       <c r="A10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>525</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -4341,7 +4341,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -4366,210 +4366,210 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14.25">
       <c r="A1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B2" t="s">
         <v>564</v>
-      </c>
-      <c r="B2" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25">
       <c r="A3" t="s">
+        <v>557</v>
+      </c>
+      <c r="B3" t="s">
         <v>558</v>
-      </c>
-      <c r="B3" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>566</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14.25">
       <c r="A11" t="s">
+        <v>560</v>
+      </c>
+      <c r="B11" t="s">
         <v>561</v>
-      </c>
-      <c r="B11" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.25">
       <c r="A22" t="s">
+        <v>350</v>
+      </c>
+      <c r="B22" t="s">
         <v>351</v>
-      </c>
-      <c r="B22" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14.25">
       <c r="A23" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B23" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="17" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>530</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -4594,122 +4594,122 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25">
       <c r="A10" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="14.25">
       <c r="A14" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B14" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>521</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="14.25">
       <c r="A16" t="s">
+        <v>518</v>
+      </c>
+      <c r="B16" t="s">
         <v>519</v>
-      </c>
-      <c r="B16" t="s">
-        <v>520</v>
       </c>
     </row>
   </sheetData>

--- a/词条标签对照表.xlsx
+++ b/词条标签对照表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56CEC7A-70EB-4C98-BC6D-D1A90860542B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F110F1-FCCC-4C97-966B-F16A6343ACC0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数学" sheetId="17" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="574">
   <si>
     <t>epsilon符号</t>
   </si>
@@ -1748,6 +1748,12 @@
   </si>
   <si>
     <t>球体的引力场</t>
+  </si>
+  <si>
+    <t>曲线坐标系中的重积分</t>
+  </si>
+  <si>
+    <t>CrIntN</t>
   </si>
 </sst>
 </file>
@@ -2258,8 +2264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2477,11 +2483,11 @@
       <c r="F8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>145</v>
+      <c r="G8" t="s">
+        <v>572</v>
+      </c>
+      <c r="H8" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2504,10 +2510,10 @@
         <v>94</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>139</v>
+        <v>405</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2530,10 +2536,10 @@
         <v>143</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2556,10 +2562,10 @@
         <v>144</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>411</v>
+        <v>141</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2582,10 +2588,10 @@
         <v>136</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>413</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2608,10 +2614,10 @@
         <v>442</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>146</v>
+        <v>423</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>467</v>
+        <v>413</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2634,10 +2640,10 @@
         <v>138</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>150</v>
+        <v>467</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2659,11 +2665,11 @@
       <c r="F15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G15" t="s">
-        <v>506</v>
-      </c>
-      <c r="H15" t="s">
-        <v>507</v>
+      <c r="G15" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2686,10 +2692,10 @@
         <v>156</v>
       </c>
       <c r="G16" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="H16" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2711,11 +2717,11 @@
       <c r="F17" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>151</v>
+      <c r="G17" t="s">
+        <v>510</v>
+      </c>
+      <c r="H17" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2737,11 +2743,11 @@
       <c r="F18" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G18" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>377</v>
+      <c r="G18" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2758,10 +2764,10 @@
         <v>131</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>567</v>
+        <v>375</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>568</v>
+        <v>377</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2776,6 +2782,12 @@
       </c>
       <c r="F20" t="s">
         <v>133</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3440,8 +3452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>

--- a/词条标签对照表.xlsx
+++ b/词条标签对照表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F110F1-FCCC-4C97-966B-F16A6343ACC0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B96E3D6-6BD5-4958-84E7-56EDEC93BBFB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="576">
   <si>
     <t>epsilon符号</t>
   </si>
@@ -1754,6 +1754,12 @@
   </si>
   <si>
     <t>CrIntN</t>
+  </si>
+  <si>
+    <t>正交曲线坐标系</t>
+  </si>
+  <si>
+    <t>CurCor</t>
   </si>
 </sst>
 </file>
@@ -2265,7 +2271,7 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2274,7 +2280,7 @@
     <col min="2" max="2" width="14.73046875" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="5" max="5" width="18.73046875" customWidth="1"/>
-    <col min="7" max="7" width="25.265625" customWidth="1"/>
+    <col min="7" max="7" width="33.73046875" customWidth="1"/>
     <col min="9" max="9" width="22.796875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2665,11 +2671,11 @@
       <c r="F15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>150</v>
+      <c r="G15" t="s">
+        <v>574</v>
+      </c>
+      <c r="H15" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2691,11 +2697,11 @@
       <c r="F16" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G16" t="s">
-        <v>506</v>
-      </c>
-      <c r="H16" t="s">
-        <v>507</v>
+      <c r="G16" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2718,10 +2724,10 @@
         <v>466</v>
       </c>
       <c r="G17" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="H17" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2743,11 +2749,11 @@
       <c r="F18" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>151</v>
+      <c r="G18" t="s">
+        <v>510</v>
+      </c>
+      <c r="H18" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2763,11 +2769,11 @@
       <c r="F19" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G19" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>377</v>
+      <c r="G19" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2784,10 +2790,10 @@
         <v>133</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>567</v>
+        <v>375</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>568</v>
+        <v>377</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2796,6 +2802,12 @@
       </c>
       <c r="D21" s="2" t="s">
         <v>89</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="22" spans="1:8">

--- a/词条标签对照表.xlsx
+++ b/词条标签对照表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B96E3D6-6BD5-4958-84E7-56EDEC93BBFB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B0885E-DFBA-4DA1-B2E6-0B5142094CA2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数学" sheetId="17" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="580">
   <si>
     <t>epsilon符号</t>
   </si>
@@ -1760,6 +1760,18 @@
   </si>
   <si>
     <t>CurCor</t>
+  </si>
+  <si>
+    <t>矢量面积分 通量</t>
+  </si>
+  <si>
+    <t>SurInt</t>
+  </si>
+  <si>
+    <t>高斯积分</t>
+  </si>
+  <si>
+    <t>GsInt</t>
   </si>
 </sst>
 </file>
@@ -2270,8 +2282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2594,10 +2606,10 @@
         <v>136</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>145</v>
+        <v>576</v>
+      </c>
+      <c r="H12" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2620,10 +2632,10 @@
         <v>442</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>413</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2646,10 +2658,10 @@
         <v>138</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>146</v>
+        <v>423</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>467</v>
+        <v>413</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2671,11 +2683,11 @@
       <c r="F15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G15" t="s">
-        <v>574</v>
-      </c>
-      <c r="H15" t="s">
-        <v>575</v>
+      <c r="G15" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2697,11 +2709,11 @@
       <c r="F16" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>150</v>
+      <c r="G16" t="s">
+        <v>574</v>
+      </c>
+      <c r="H16" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2723,11 +2735,11 @@
       <c r="F17" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="G17" t="s">
-        <v>506</v>
-      </c>
-      <c r="H17" t="s">
-        <v>507</v>
+      <c r="G17" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2750,10 +2762,10 @@
         <v>129</v>
       </c>
       <c r="G18" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="H18" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2769,11 +2781,11 @@
       <c r="F19" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>151</v>
+      <c r="G19" t="s">
+        <v>510</v>
+      </c>
+      <c r="H19" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2789,11 +2801,11 @@
       <c r="F20" t="s">
         <v>133</v>
       </c>
-      <c r="G20" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>377</v>
+      <c r="G20" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2804,10 +2816,10 @@
         <v>89</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>567</v>
+        <v>375</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>568</v>
+        <v>377</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2816,6 +2828,12 @@
       </c>
       <c r="D22" s="2" t="s">
         <v>318</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -4203,8 +4221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9296875" defaultRowHeight="13.15"/>
@@ -4291,6 +4309,14 @@
       </c>
       <c r="B10" t="s">
         <v>356</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14.25">
+      <c r="A11" t="s">
+        <v>578</v>
+      </c>
+      <c r="B11" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="14" spans="1:2">

--- a/词条标签对照表.xlsx
+++ b/词条标签对照表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B0885E-DFBA-4DA1-B2E6-0B5142094CA2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5510105-6CA3-40AE-AF96-29653E543337}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -370,12 +370,6 @@
     <t>CExp</t>
   </si>
   <si>
-    <t>平面波的复数表示</t>
-  </si>
-  <si>
-    <t>CPWave</t>
-  </si>
-  <si>
     <t>CTrig</t>
   </si>
   <si>
@@ -472,9 +466,6 @@
     <t>DerV</t>
   </si>
   <si>
-    <t>极坐标中单位矢量的偏导</t>
-  </si>
-  <si>
     <t>极坐标中的矢量偏导</t>
   </si>
   <si>
@@ -625,9 +616,6 @@
     <t>FaraEB</t>
   </si>
   <si>
-    <t>波尔原子模型</t>
-  </si>
-  <si>
     <t>BohrMd</t>
   </si>
   <si>
@@ -637,9 +625,6 @@
     <t>Consts</t>
   </si>
   <si>
-    <t>球坐标系中的梯度散度旋度及拉普拉斯</t>
-  </si>
-  <si>
     <t>SphNab</t>
   </si>
   <si>
@@ -808,9 +793,6 @@
     <t>QGsME</t>
   </si>
   <si>
-    <t>闭合电流在匀强磁场中所受的力矩</t>
-  </si>
-  <si>
     <t>EBTorq</t>
   </si>
   <si>
@@ -1772,6 +1754,24 @@
   </si>
   <si>
     <t>GsInt</t>
+  </si>
+  <si>
+    <t>玻尔原子模型</t>
+  </si>
+  <si>
+    <t>极坐标系中单位矢量的偏导</t>
+  </si>
+  <si>
+    <t>磁场中闭合电流的力矩</t>
+  </si>
+  <si>
+    <t>数值解一维薛定谔方程（试射法）</t>
+  </si>
+  <si>
+    <t>NSES</t>
+  </si>
+  <si>
+    <t>球坐标系中的梯度散度旋度及拉普拉斯算符</t>
   </si>
 </sst>
 </file>
@@ -2282,8 +2282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2298,19 +2298,19 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="5" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="K1" s="5"/>
     </row>
@@ -2331,27 +2331,27 @@
         <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="I2" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="J2" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>60</v>
@@ -2360,22 +2360,22 @@
         <v>57</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="J3" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2386,22 +2386,22 @@
         <v>54</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2409,33 +2409,33 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>102</v>
@@ -2450,15 +2450,15 @@
         <v>67</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>90</v>
@@ -2470,21 +2470,21 @@
         <v>82</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>105</v>
@@ -2502,15 +2502,15 @@
         <v>66</v>
       </c>
       <c r="G8" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="H8" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>104</v>
@@ -2528,10 +2528,10 @@
         <v>94</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2548,16 +2548,16 @@
         <v>96</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2568,30 +2568,30 @@
         <v>50</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>99</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B12" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>51</v>
@@ -2600,24 +2600,24 @@
         <v>52</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="H12" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>92</v>
@@ -2626,99 +2626,99 @@
         <v>95</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="2" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B15" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>146</v>
+        <v>575</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="2" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="D16" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G16" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="H16" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>111</v>
@@ -2730,24 +2730,24 @@
         <v>101</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>109</v>
@@ -2756,16 +2756,16 @@
         <v>110</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G18" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="H18" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2776,36 +2776,36 @@
         <v>43</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G19" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="H19" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="C20" s="2" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2816,40 +2816,40 @@
         <v>89</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="C22" s="2" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="C23" s="2" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="D23" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="C24" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2870,39 +2870,39 @@
     </row>
     <row r="27" spans="1:8">
       <c r="C27" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="C28" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="C29" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2925,10 +2925,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2938,98 +2938,98 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B3" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B6" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>197</v>
+        <v>574</v>
       </c>
       <c r="B8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B10" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B11" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B12" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3037,151 +3037,159 @@
         <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B14" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B15" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B16" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B17" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B18" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B19" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B20" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B21" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B22" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B23" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B24" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B25" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B26" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B27" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B28" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B29" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B30" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B31" t="s">
-        <v>390</v>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>577</v>
+      </c>
+      <c r="B33" t="s">
+        <v>578</v>
       </c>
     </row>
   </sheetData>
@@ -3201,10 +3209,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -3227,10 +3235,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -3287,7 +3295,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -3392,7 +3400,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>81</v>
@@ -3435,18 +3443,18 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -3467,10 +3475,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -3483,7 +3491,7 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
@@ -3502,16 +3510,16 @@
   <sheetData>
     <row r="1" spans="1:10" ht="14.25">
       <c r="A1" s="8" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="I1" s="5"/>
     </row>
@@ -3523,77 +3531,77 @@
         <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.25">
       <c r="A4" s="2" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E4" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="F4" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="H4" s="18" t="s">
         <v>49</v>
@@ -3601,116 +3609,110 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>113</v>
+        <v>422</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.25">
       <c r="A6" s="2" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="G6" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="H6" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="2" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25">
       <c r="A8" s="9" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25">
       <c r="A9" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B9" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25">
       <c r="A10" s="9" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>32</v>
@@ -3719,134 +3721,134 @@
         <v>44</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25">
       <c r="A11" s="2" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H11" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25">
       <c r="A15" s="4" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C15" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="D15" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.25">
       <c r="A16" s="9" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.25">
       <c r="A17" s="2" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C17" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3859,58 +3861,58 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.25">
       <c r="A24" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="13" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.25">
       <c r="A26" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B26" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="14.25">
@@ -3929,7 +3931,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3939,124 +3941,124 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="9" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="9" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B11" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="9" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B13" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="9" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="B14" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="9" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B15" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="9" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>87</v>
@@ -4064,15 +4066,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>87</v>
@@ -4080,42 +4082,42 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="B21" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="B25" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -4139,50 +4141,50 @@
   <sheetData>
     <row r="5" spans="1:2" ht="14.25">
       <c r="A5" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25">
       <c r="A10" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B10" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14.25">
       <c r="A11" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="B11" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -4209,7 +4211,7 @@
         <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -4222,7 +4224,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9296875" defaultRowHeight="13.15"/>
@@ -4233,26 +4235,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="1" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4265,106 +4267,106 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>201</v>
+        <v>579</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25">
       <c r="A10" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B10" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14.25">
       <c r="A11" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="B11" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -4391,7 +4393,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -4404,7 +4406,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9296875" defaultRowHeight="13.15"/>
@@ -4416,210 +4418,210 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14.25">
       <c r="A1" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="B1" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="B2" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25">
       <c r="A3" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B3" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14.25">
       <c r="A11" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B11" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>258</v>
+        <v>576</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.25">
       <c r="A22" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B22" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14.25">
       <c r="A23" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B23" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="17" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -4644,122 +4646,122 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25">
       <c r="A10" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B10" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="14.25">
       <c r="A14" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B14" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="14.25">
       <c r="A16" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="B16" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>

--- a/词条标签对照表.xlsx
+++ b/词条标签对照表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5510105-6CA3-40AE-AF96-29653E543337}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDCF3ED-54FA-469E-A6C7-7075D732EAE4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数学" sheetId="17" r:id="rId1"/>
@@ -18,10 +18,11 @@
     <sheet name="电磁学" sheetId="12" r:id="rId8"/>
     <sheet name="统计力学" sheetId="13" r:id="rId9"/>
     <sheet name="量子力学" sheetId="7" r:id="rId10"/>
-    <sheet name="现代物理" sheetId="16" r:id="rId11"/>
-    <sheet name="数学物理方法" sheetId="14" r:id="rId12"/>
-    <sheet name="不转换" sheetId="4" r:id="rId13"/>
-    <sheet name="相对论" sheetId="15" r:id="rId14"/>
+    <sheet name="超纲数值计算" sheetId="19" r:id="rId11"/>
+    <sheet name="现代物理" sheetId="16" r:id="rId12"/>
+    <sheet name="数学物理方法" sheetId="14" r:id="rId13"/>
+    <sheet name="不转换" sheetId="4" r:id="rId14"/>
+    <sheet name="相对论" sheetId="15" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_Toc442300232" localSheetId="8">统计力学!$A$9</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="584">
   <si>
     <t>epsilon符号</t>
   </si>
@@ -1744,9 +1745,6 @@
     <t>CurCor</t>
   </si>
   <si>
-    <t>矢量面积分 通量</t>
-  </si>
-  <si>
     <t>SurInt</t>
   </si>
   <si>
@@ -1772,6 +1770,21 @@
   </si>
   <si>
     <t>球坐标系中的梯度散度旋度及拉普拉斯算符</t>
+  </si>
+  <si>
+    <t>曲面积分 通量</t>
+  </si>
+  <si>
+    <t>自由度</t>
+  </si>
+  <si>
+    <t>DoF</t>
+  </si>
+  <si>
+    <t>Crank-Nicolson 算法（一维）</t>
+  </si>
+  <si>
+    <t>CraNic</t>
   </si>
 </sst>
 </file>
@@ -2283,7 +2296,7 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2606,10 +2619,10 @@
         <v>134</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="H12" t="s">
         <v>570</v>
-      </c>
-      <c r="H12" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2684,7 +2697,7 @@
         <v>68</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>461</v>
@@ -2994,7 +3007,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B8" t="s">
         <v>194</v>
@@ -3186,10 +3199,10 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
+        <v>576</v>
+      </c>
+      <c r="B33" t="s">
         <v>577</v>
-      </c>
-      <c r="B33" t="s">
-        <v>578</v>
       </c>
     </row>
   </sheetData>
@@ -3198,6 +3211,32 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA727D62-05EC-4233-BB6E-5003ECFC301D}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -3220,7 +3259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -3246,7 +3285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B29"/>
   <sheetViews>
@@ -3462,7 +3501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -3491,7 +3530,7 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
@@ -3555,18 +3594,18 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" ht="14.25">
       <c r="A3" s="4" t="s">
         <v>448</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>300</v>
+      <c r="C3" t="s">
+        <v>580</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>299</v>
+        <v>581</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>121</v>
@@ -3588,11 +3627,11 @@
       <c r="B4" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>298</v>
+      <c r="C4" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>299</v>
       </c>
       <c r="E4" t="s">
         <v>530</v>
@@ -3607,18 +3646,18 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" ht="14.25">
       <c r="A5" s="2" t="s">
         <v>409</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>422</v>
+      <c r="C5" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>298</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>466</v>
@@ -3635,10 +3674,10 @@
         <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>439</v>
+        <v>421</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>422</v>
       </c>
       <c r="G6" t="s">
         <v>541</v>
@@ -3647,7 +3686,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" ht="14.25">
       <c r="A7" s="2" t="s">
         <v>564</v>
       </c>
@@ -3655,10 +3694,10 @@
         <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>302</v>
+        <v>440</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>439</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>545</v>
@@ -3675,10 +3714,10 @@
         <v>406</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>179</v>
@@ -3695,10 +3734,10 @@
         <v>454</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>396</v>
+        <v>303</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>119</v>
+        <v>304</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>548</v>
@@ -3715,10 +3754,10 @@
         <v>433</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
+        <v>396</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>549</v>
@@ -3735,10 +3774,10 @@
         <v>79</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>285</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>286</v>
+        <v>44</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>314</v>
@@ -3755,10 +3794,10 @@
         <v>45</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>397</v>
+        <v>285</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>244</v>
+        <v>286</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>316</v>
@@ -3775,10 +3814,10 @@
         <v>310</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>307</v>
+        <v>397</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3789,24 +3828,24 @@
         <v>308</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>31</v>
+        <v>307</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="14.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="4" t="s">
         <v>449</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="C15" t="s">
-        <v>506</v>
-      </c>
-      <c r="D15" t="s">
-        <v>505</v>
+      <c r="C15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.25">
@@ -3816,39 +3855,39 @@
       <c r="B16" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="14.25">
+      <c r="C16" t="s">
+        <v>506</v>
+      </c>
+      <c r="D16" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
         <v>387</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="C17" t="s">
-        <v>529</v>
+      <c r="C17" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.25">
       <c r="A18" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>156</v>
+      <c r="C18" t="s">
+        <v>529</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>157</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3857,6 +3896,12 @@
       </c>
       <c r="B19" s="13" t="s">
         <v>46</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4223,8 +4268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9296875" defaultRowHeight="13.15"/>
@@ -4283,7 +4328,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>197</v>
@@ -4315,10 +4360,10 @@
     </row>
     <row r="11" spans="1:2" ht="14.25">
       <c r="A11" t="s">
+        <v>571</v>
+      </c>
+      <c r="B11" t="s">
         <v>572</v>
-      </c>
-      <c r="B11" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4406,7 +4451,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9296875" defaultRowHeight="13.15"/>
@@ -4546,7 +4591,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>253</v>

--- a/词条标签对照表.xlsx
+++ b/词条标签对照表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDCF3ED-54FA-469E-A6C7-7075D732EAE4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1F0F41-ABB7-4E9B-87A8-18D3B514C92D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数学" sheetId="17" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="586">
   <si>
     <t>epsilon符号</t>
   </si>
@@ -1214,9 +1214,6 @@
     <t>振动与波动</t>
   </si>
   <si>
-    <t>万有引力与天体运动</t>
-  </si>
-  <si>
     <t>受阻简谐振子</t>
   </si>
   <si>
@@ -1785,6 +1782,15 @@
   </si>
   <si>
     <t>CraNic</t>
+  </si>
+  <si>
+    <t>中心立场问题</t>
+  </si>
+  <si>
+    <t>无量纲的物理公式</t>
+  </si>
+  <si>
+    <t>NoUnit</t>
   </si>
 </sst>
 </file>
@@ -2296,17 +2302,17 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.73046875" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="5" max="5" width="18.73046875" customWidth="1"/>
-    <col min="7" max="7" width="33.73046875" customWidth="1"/>
-    <col min="9" max="9" width="22.796875" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="33.7109375" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2323,7 +2329,7 @@
         <v>256</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K1" s="5"/>
     </row>
@@ -2353,18 +2359,18 @@
         <v>258</v>
       </c>
       <c r="I2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>60</v>
@@ -2373,22 +2379,22 @@
         <v>57</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="J3" t="s">
         <v>510</v>
-      </c>
-      <c r="J3" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2411,7 +2417,7 @@
         <v>133</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>337</v>
@@ -2422,7 +2428,7 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>365</v>
@@ -2463,7 +2469,7 @@
         <v>67</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>261</v>
@@ -2471,7 +2477,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>90</v>
@@ -2483,21 +2489,21 @@
         <v>82</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="F7" t="s">
         <v>457</v>
       </c>
-      <c r="F7" t="s">
-        <v>458</v>
-      </c>
       <c r="G7" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>418</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>105</v>
@@ -2515,15 +2521,15 @@
         <v>66</v>
       </c>
       <c r="G8" t="s">
+        <v>565</v>
+      </c>
+      <c r="H8" t="s">
         <v>566</v>
-      </c>
-      <c r="H8" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>104</v>
@@ -2541,7 +2547,7 @@
         <v>94</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>143</v>
@@ -2561,7 +2567,7 @@
         <v>96</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>141</v>
@@ -2587,7 +2593,7 @@
         <v>99</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>142</v>
@@ -2601,7 +2607,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B12" t="s">
         <v>290</v>
@@ -2613,21 +2619,21 @@
         <v>52</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>134</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>313</v>
@@ -2639,13 +2645,13 @@
         <v>95</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>436</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>143</v>
@@ -2653,13 +2659,13 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>108</v>
@@ -2671,18 +2677,18 @@
         <v>136</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B15" t="s">
         <v>527</v>
-      </c>
-      <c r="B15" t="s">
-        <v>528</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>385</v>
@@ -2697,24 +2703,24 @@
         <v>68</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C16" t="s">
+        <v>531</v>
+      </c>
+      <c r="D16" t="s">
         <v>532</v>
-      </c>
-      <c r="D16" t="s">
-        <v>533</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>152</v>
@@ -2723,10 +2729,10 @@
         <v>153</v>
       </c>
       <c r="G16" t="s">
+        <v>567</v>
+      </c>
+      <c r="H16" t="s">
         <v>568</v>
-      </c>
-      <c r="H16" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2743,10 +2749,10 @@
         <v>101</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>459</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>460</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>146</v>
@@ -2775,10 +2781,10 @@
         <v>127</v>
       </c>
       <c r="G18" t="s">
+        <v>499</v>
+      </c>
+      <c r="H18" t="s">
         <v>500</v>
-      </c>
-      <c r="H18" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2795,15 +2801,15 @@
         <v>129</v>
       </c>
       <c r="G19" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H19" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="C20" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>48</v>
@@ -2843,26 +2849,26 @@
         <v>312</v>
       </c>
       <c r="G22" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="H22" s="11" t="s">
         <v>561</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="C23" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D23" t="s">
         <v>430</v>
-      </c>
-      <c r="D23" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="C24" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2907,7 +2913,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2940,13 +2946,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.46484375" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2999,7 +3005,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B7" t="s">
         <v>382</v>
@@ -3007,7 +3013,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B8" t="s">
         <v>194</v>
@@ -3018,7 +3024,7 @@
         <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3199,10 +3205,10 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
+        <v>575</v>
+      </c>
+      <c r="B33" t="s">
         <v>576</v>
-      </c>
-      <c r="B33" t="s">
-        <v>577</v>
       </c>
     </row>
   </sheetData>
@@ -3214,21 +3220,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA727D62-05EC-4233-BB6E-5003ECFC301D}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B1" t="s">
         <v>582</v>
-      </c>
-      <c r="B1" t="s">
-        <v>583</v>
       </c>
     </row>
   </sheetData>
@@ -3244,7 +3250,7 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -3267,9 +3273,9 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.9296875" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3293,11 +3299,11 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="36.73046875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="28.86328125" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.1328125" style="2"/>
+    <col min="1" max="1" width="36.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3507,9 +3513,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.73046875" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3527,27 +3533,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="32.59765625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.1328125" style="2"/>
-    <col min="3" max="3" width="32.73046875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.1328125" style="2"/>
-    <col min="5" max="5" width="18.19921875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.1328125" style="2"/>
-    <col min="7" max="7" width="23.796875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.1328125" style="2"/>
-    <col min="9" max="9" width="13.73046875" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.1328125" style="2"/>
+    <col min="1" max="1" width="32.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="32.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="18.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="23.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="13.7109375" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.25">
+    <row r="1" spans="1:10" ht="15">
       <c r="A1" s="8" t="s">
         <v>390</v>
       </c>
@@ -3558,11 +3564,11 @@
         <v>392</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>393</v>
+        <v>583</v>
       </c>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="14.25">
+    <row r="2" spans="1:10" ht="15">
       <c r="A2" s="12" t="s">
         <v>71</v>
       </c>
@@ -3570,22 +3576,22 @@
         <v>72</v>
       </c>
       <c r="C2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>452</v>
-      </c>
       <c r="E2" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>544</v>
+      <c r="G2" t="s">
+        <v>584</v>
+      </c>
+      <c r="H2" t="s">
+        <v>585</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>195</v>
@@ -3594,38 +3600,38 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.25">
+    <row r="3" spans="1:10" ht="15">
       <c r="A3" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C3" t="s">
+        <v>579</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>580</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>581</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>121</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>463</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="14.25">
+        <v>462</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15">
       <c r="A4" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>410</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>411</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>300</v>
@@ -3634,21 +3640,21 @@
         <v>299</v>
       </c>
       <c r="E4" t="s">
+        <v>529</v>
+      </c>
+      <c r="F4" t="s">
         <v>530</v>
       </c>
-      <c r="F4" t="s">
-        <v>531</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>565</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="14.25">
+      <c r="G4" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15">
       <c r="A5" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>69</v>
@@ -3659,59 +3665,59 @@
       <c r="D5" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>466</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="14.25">
+      <c r="G5" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="G6" t="s">
-        <v>541</v>
-      </c>
-      <c r="H6" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="14.25">
+      <c r="G6" s="18" t="s">
+        <v>564</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15">
       <c r="A7" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>439</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="14.25">
+        <v>438</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15">
       <c r="A8" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>301</v>
@@ -3719,19 +3725,19 @@
       <c r="D8" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="14.25">
+      <c r="G8" t="s">
+        <v>540</v>
+      </c>
+      <c r="H8" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15">
       <c r="A9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>303</v>
@@ -3740,33 +3746,33 @@
         <v>304</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="14.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15">
       <c r="A10" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>433</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>119</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>549</v>
+        <v>179</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="14.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
         <v>327</v>
       </c>
@@ -3780,10 +3786,10 @@
         <v>44</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="H11" t="s">
-        <v>315</v>
+        <v>547</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3800,24 +3806,30 @@
         <v>286</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>316</v>
+        <v>548</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15">
       <c r="A13" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>310</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>244</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H13" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3833,13 +3845,19 @@
       <c r="D14" s="2" t="s">
         <v>243</v>
       </c>
+      <c r="G14" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>31</v>
@@ -3848,18 +3866,18 @@
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="14.25">
+    <row r="16" spans="1:10" ht="15">
       <c r="A16" s="9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C16" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D16" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3876,7 +3894,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="14.25">
+    <row r="18" spans="1:4" ht="15">
       <c r="A18" s="2" t="s">
         <v>120</v>
       </c>
@@ -3884,7 +3902,7 @@
         <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>284</v>
@@ -3906,7 +3924,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>122</v>
@@ -3936,7 +3954,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="14.25">
+    <row r="24" spans="1:4" ht="15">
       <c r="A24" t="s">
         <v>376</v>
       </c>
@@ -3944,25 +3962,17 @@
         <v>377</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="14.25">
-      <c r="A26" t="s">
-        <v>495</v>
-      </c>
-      <c r="B26" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="14.25">
-      <c r="A45"/>
-      <c r="B45"/>
+    <row r="25" spans="1:4" ht="15">
+      <c r="A25" t="s">
+        <v>494</v>
+      </c>
+      <c r="B25" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15">
+      <c r="A44"/>
+      <c r="B44"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3975,13 +3985,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA727655-9C2D-40D4-B0BD-5B356A822265}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.59765625" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3991,119 +4001,119 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>475</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>489</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>480</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>478</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="30">
       <c r="A9" s="9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>482</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>485</v>
+      </c>
+      <c r="B11" t="s">
         <v>486</v>
-      </c>
-      <c r="B11" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>484</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
+        <v>492</v>
+      </c>
+      <c r="B13" t="s">
         <v>493</v>
-      </c>
-      <c r="B13" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="B14" t="s">
         <v>502</v>
-      </c>
-      <c r="B14" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="B15" t="s">
         <v>536</v>
       </c>
-      <c r="B15" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+    </row>
+    <row r="16" spans="1:2" ht="30">
       <c r="A16" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>87</v>
@@ -4111,15 +4121,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>426</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>87</v>
@@ -4127,42 +4137,42 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>468</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>469</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>471</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
+        <v>472</v>
+      </c>
+      <c r="B21" t="s">
         <v>473</v>
-      </c>
-      <c r="B21" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
+        <v>519</v>
+      </c>
+      <c r="B25" t="s">
         <v>520</v>
-      </c>
-      <c r="B25" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
+        <v>506</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>507</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -4178,13 +4188,13 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9296875" defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="21.73046875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.9296875" style="1"/>
+    <col min="1" max="1" width="21.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:2" ht="14.25">
+    <row r="5" spans="1:2" ht="15">
       <c r="A5" t="s">
         <v>343</v>
       </c>
@@ -4216,20 +4226,20 @@
         <v>373</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.25">
+    <row r="10" spans="1:2" ht="15">
       <c r="A10" t="s">
+        <v>533</v>
+      </c>
+      <c r="B10" t="s">
         <v>534</v>
       </c>
-      <c r="B10" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="14.25">
+    </row>
+    <row r="11" spans="1:2" ht="15">
       <c r="A11" t="s">
+        <v>538</v>
+      </c>
+      <c r="B11" t="s">
         <v>539</v>
-      </c>
-      <c r="B11" t="s">
-        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -4245,10 +4255,10 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9296875" defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="19" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.9296875" style="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4272,10 +4282,10 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9296875" defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="37.59765625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.9296875" style="1"/>
+    <col min="1" max="1" width="37.5703125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4286,12 +4296,12 @@
         <v>329</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.25">
+    <row r="2" spans="1:2" ht="15">
       <c r="A2" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>412</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4328,7 +4338,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>197</v>
@@ -4350,7 +4360,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.25">
+    <row r="10" spans="1:2" ht="15">
       <c r="A10" t="s">
         <v>351</v>
       </c>
@@ -4358,20 +4368,20 @@
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.25">
+    <row r="11" spans="1:2" ht="15">
       <c r="A11" t="s">
+        <v>570</v>
+      </c>
+      <c r="B11" t="s">
         <v>571</v>
-      </c>
-      <c r="B11" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4427,10 +4437,10 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9296875" defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="15.06640625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.9296875" style="1"/>
+    <col min="1" max="1" width="15" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4454,35 +4464,35 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9296875" defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="34.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.86328125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.9296875" style="1"/>
+    <col min="1" max="1" width="34.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25">
+    <row r="1" spans="1:2" ht="15">
       <c r="A1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15">
+      <c r="A2" t="s">
         <v>556</v>
       </c>
-      <c r="B1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>557</v>
       </c>
-      <c r="B2" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.25">
+    </row>
+    <row r="3" spans="1:2" ht="15">
       <c r="A3" t="s">
+        <v>550</v>
+      </c>
+      <c r="B3" t="s">
         <v>551</v>
-      </c>
-      <c r="B3" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4511,10 +4521,10 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>559</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4541,12 +4551,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.25">
+    <row r="11" spans="1:2" ht="15">
       <c r="A11" t="s">
+        <v>553</v>
+      </c>
+      <c r="B11" t="s">
         <v>554</v>
-      </c>
-      <c r="B11" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4591,7 +4601,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>253</v>
@@ -4629,7 +4639,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="14.25">
+    <row r="22" spans="1:2" ht="15">
       <c r="A22" t="s">
         <v>344</v>
       </c>
@@ -4637,7 +4647,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="14.25">
+    <row r="23" spans="1:2" ht="15">
       <c r="A23" t="s">
         <v>355</v>
       </c>
@@ -4655,18 +4665,18 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="17" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>523</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -4680,13 +4690,13 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9296875" defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="30.19921875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.9296875" style="1"/>
+    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4761,7 +4771,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.25">
+    <row r="10" spans="1:2" ht="15">
       <c r="A10" s="1" t="s">
         <v>296</v>
       </c>
@@ -4785,28 +4795,28 @@
         <v>252</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="14.25">
+    <row r="14" spans="1:2" ht="15">
       <c r="A14" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="14.25">
+    </row>
+    <row r="16" spans="1:2" ht="15">
       <c r="A16" t="s">
+        <v>511</v>
+      </c>
+      <c r="B16" t="s">
         <v>512</v>
-      </c>
-      <c r="B16" t="s">
-        <v>513</v>
       </c>
     </row>
   </sheetData>

--- a/词条标签对照表.xlsx
+++ b/词条标签对照表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1F0F41-ABB7-4E9B-87A8-18D3B514C92D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161812FC-438A-4CB9-BCEB-9058124251C9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数学" sheetId="17" r:id="rId1"/>
@@ -2305,14 +2305,14 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.73046875" customWidth="1"/>
+    <col min="2" max="2" width="14.73046875" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="33.7109375" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.73046875" customWidth="1"/>
+    <col min="7" max="7" width="33.73046875" customWidth="1"/>
+    <col min="9" max="9" width="22.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2946,13 +2946,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="1" max="1" width="30.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3224,9 +3224,9 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3250,7 +3250,7 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -3273,7 +3273,7 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
   </cols>
@@ -3299,11 +3299,11 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="36.73046875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.86328125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3513,9 +3513,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3535,25 +3535,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="32.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="18.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="23.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="2"/>
-    <col min="9" max="9" width="13.7109375" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="32.59765625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" style="2"/>
+    <col min="3" max="3" width="32.73046875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.1328125" style="2"/>
+    <col min="5" max="5" width="18.1328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.1328125" style="2"/>
+    <col min="7" max="7" width="23.86328125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.1328125" style="2"/>
+    <col min="9" max="9" width="13.73046875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15">
+    <row r="1" spans="1:10" ht="14.25">
       <c r="A1" s="8" t="s">
         <v>390</v>
       </c>
@@ -3568,7 +3568,7 @@
       </c>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="15">
+    <row r="2" spans="1:10" ht="14.25">
       <c r="A2" s="12" t="s">
         <v>71</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15">
+    <row r="3" spans="1:10" ht="14.25">
       <c r="A3" s="4" t="s">
         <v>447</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15">
+    <row r="4" spans="1:10" ht="14.25">
       <c r="A4" s="2" t="s">
         <v>409</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15">
+    <row r="5" spans="1:10" ht="14.25">
       <c r="A5" s="2" t="s">
         <v>408</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15">
+    <row r="7" spans="1:10" ht="14.25">
       <c r="A7" s="2" t="s">
         <v>563</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15">
+    <row r="8" spans="1:10" ht="14.25">
       <c r="A8" s="9" t="s">
         <v>415</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15">
+    <row r="9" spans="1:10" ht="14.25">
       <c r="A9" t="s">
         <v>454</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15">
+    <row r="10" spans="1:10" ht="14.25">
       <c r="A10" s="9" t="s">
         <v>431</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15">
+    <row r="13" spans="1:10" ht="14.25">
       <c r="A13" s="2" t="s">
         <v>436</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15">
+    <row r="16" spans="1:10" ht="14.25">
       <c r="A16" s="9" t="s">
         <v>414</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15">
+    <row r="18" spans="1:4" ht="14.25">
       <c r="A18" s="2" t="s">
         <v>120</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15">
+    <row r="24" spans="1:4" ht="14.25">
       <c r="A24" t="s">
         <v>376</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15">
+    <row r="25" spans="1:4" ht="14.25">
       <c r="A25" t="s">
         <v>494</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15">
+    <row r="44" spans="1:2" ht="14.25">
       <c r="A44"/>
       <c r="B44"/>
     </row>
@@ -3989,9 +3989,9 @@
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" customWidth="1"/>
+    <col min="1" max="1" width="32.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4055,7 +4055,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30">
+    <row r="9" spans="1:2">
       <c r="A9" s="9" t="s">
         <v>525</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30">
+    <row r="16" spans="1:2">
       <c r="A16" s="9" t="s">
         <v>495</v>
       </c>
@@ -4188,13 +4188,13 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.15"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.73046875" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:2" ht="15">
+    <row r="5" spans="1:2" ht="14.25">
       <c r="A5" t="s">
         <v>343</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15">
+    <row r="10" spans="1:2" ht="14.25">
       <c r="A10" t="s">
         <v>533</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15">
+    <row r="11" spans="1:2" ht="14.25">
       <c r="A11" t="s">
         <v>538</v>
       </c>
@@ -4255,7 +4255,7 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.15"/>
   <cols>
     <col min="1" max="1" width="19" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
@@ -4282,9 +4282,9 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.15"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="37.59765625" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -4296,7 +4296,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15">
+    <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="1" t="s">
         <v>411</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15">
+    <row r="10" spans="1:2" ht="14.25">
       <c r="A10" t="s">
         <v>351</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15">
+    <row r="11" spans="1:2" ht="14.25">
       <c r="A11" t="s">
         <v>570</v>
       </c>
@@ -4437,7 +4437,7 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.15"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
@@ -4464,14 +4464,14 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.15"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="34.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.86328125" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15">
+    <row r="1" spans="1:2" ht="14.25">
       <c r="A1" t="s">
         <v>555</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15">
+    <row r="2" spans="1:2" ht="14.25">
       <c r="A2" t="s">
         <v>556</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15">
+    <row r="3" spans="1:2" ht="14.25">
       <c r="A3" t="s">
         <v>550</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15">
+    <row r="11" spans="1:2" ht="14.25">
       <c r="A11" t="s">
         <v>553</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15">
+    <row r="22" spans="1:2" ht="14.25">
       <c r="A22" t="s">
         <v>344</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15">
+    <row r="23" spans="1:2" ht="14.25">
       <c r="A23" t="s">
         <v>355</v>
       </c>
@@ -4693,9 +4693,9 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.15"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.1328125" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -4771,7 +4771,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15">
+    <row r="10" spans="1:2" ht="14.25">
       <c r="A10" s="1" t="s">
         <v>296</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15">
+    <row r="14" spans="1:2" ht="14.25">
       <c r="A14" t="s">
         <v>516</v>
       </c>
@@ -4811,7 +4811,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15">
+    <row r="16" spans="1:2" ht="14.25">
       <c r="A16" t="s">
         <v>511</v>
       </c>

--- a/词条标签对照表.xlsx
+++ b/词条标签对照表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161812FC-438A-4CB9-BCEB-9058124251C9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784E665D-4C3F-476A-812E-05809D78F3BD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数学" sheetId="17" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="588">
   <si>
     <t>epsilon符号</t>
   </si>
@@ -431,12 +431,6 @@
     <t>RotA</t>
   </si>
   <si>
-    <t>矢量空间</t>
-  </si>
-  <si>
-    <t>LSpace</t>
-  </si>
-  <si>
     <t>LTrans</t>
   </si>
   <si>
@@ -1244,9 +1238,6 @@
     <t>一元函数的微分</t>
   </si>
   <si>
-    <t>几何矢量回顾</t>
-  </si>
-  <si>
     <t>矢量的导数 偏导 求导法则</t>
   </si>
   <si>
@@ -1791,6 +1782,21 @@
   </si>
   <si>
     <t>NoUnit</t>
+  </si>
+  <si>
+    <t>酋矩阵</t>
+  </si>
+  <si>
+    <t>UniMat</t>
+  </si>
+  <si>
+    <t>代数矢量</t>
+  </si>
+  <si>
+    <t>NumVec</t>
+  </si>
+  <si>
+    <t>几何矢量</t>
   </si>
 </sst>
 </file>
@@ -2301,8 +2307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2317,19 +2323,19 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>363</v>
-      </c>
       <c r="G1" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="K1" s="5"/>
     </row>
@@ -2350,27 +2356,27 @@
         <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="J2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>60</v>
@@ -2379,22 +2385,22 @@
         <v>57</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>403</v>
+        <v>587</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="J3" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2405,22 +2411,22 @@
         <v>54</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>132</v>
+        <v>585</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>133</v>
+        <v>586</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2428,33 +2434,33 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>102</v>
@@ -2469,15 +2475,15 @@
         <v>67</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>90</v>
@@ -2489,21 +2495,21 @@
         <v>82</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="F7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>105</v>
@@ -2521,15 +2527,15 @@
         <v>66</v>
       </c>
       <c r="G8" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="H8" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>104</v>
@@ -2547,10 +2553,10 @@
         <v>94</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2567,16 +2573,16 @@
         <v>96</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2587,30 +2593,30 @@
         <v>50</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>99</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>51</v>
@@ -2619,24 +2625,24 @@
         <v>52</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="H12" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>92</v>
@@ -2645,99 +2651,99 @@
         <v>95</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B15" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D16" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G16" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="H16" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>111</v>
@@ -2749,21 +2755,21 @@
         <v>101</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>112</v>
@@ -2775,16 +2781,16 @@
         <v>110</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>127</v>
       </c>
       <c r="G18" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="H18" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2801,15 +2807,15 @@
         <v>129</v>
       </c>
       <c r="G19" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H19" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="C20" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>48</v>
@@ -2821,10 +2827,10 @@
         <v>131</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2835,40 +2841,40 @@
         <v>89</v>
       </c>
       <c r="G21" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="H21" s="11" t="s">
         <v>369</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="C22" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="C23" s="2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D23" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="C24" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2897,31 +2903,31 @@
     </row>
     <row r="28" spans="1:8">
       <c r="C28" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="C29" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2957,98 +2963,98 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" t="s">
         <v>188</v>
-      </c>
-      <c r="B4" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" t="s">
         <v>189</v>
-      </c>
-      <c r="B5" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B9" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3056,159 +3062,159 @@
         <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B14" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B18" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B21" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B22" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
+        <v>245</v>
+      </c>
+      <c r="B23" t="s">
         <v>247</v>
-      </c>
-      <c r="B23" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
+        <v>246</v>
+      </c>
+      <c r="B24" t="s">
         <v>248</v>
-      </c>
-      <c r="B24" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B25" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B26" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B27" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B28" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B29" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B30" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B31" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B33" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -3231,10 +3237,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B1" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -3254,10 +3260,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -3280,10 +3286,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3340,7 +3346,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
@@ -3445,7 +3451,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>81</v>
@@ -3488,18 +3494,18 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3520,10 +3526,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -3535,8 +3541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
@@ -3555,16 +3561,16 @@
   <sheetData>
     <row r="1" spans="1:10" ht="14.25">
       <c r="A1" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>392</v>
-      </c>
       <c r="G1" s="5" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="I1" s="5"/>
     </row>
@@ -3576,117 +3582,117 @@
         <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="H2" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.25">
       <c r="A3" s="4" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>121</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.25">
       <c r="A4" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E4" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F4" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="14.25">
       <c r="A5" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="2" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="H6" s="18" t="s">
         <v>49</v>
@@ -3694,87 +3700,87 @@
     </row>
     <row r="7" spans="1:10" ht="14.25">
       <c r="A7" s="2" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25">
       <c r="A8" s="9" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G8" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="H8" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25">
       <c r="A9" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B9" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25">
       <c r="A10" s="9" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>119</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>79</v>
@@ -3786,112 +3792,112 @@
         <v>44</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.25">
       <c r="A13" s="2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H13" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="4" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.25">
       <c r="A16" s="9" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C16" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D16" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.25">
@@ -3902,10 +3908,10 @@
         <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3916,15 +3922,15 @@
         <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>122</v>
@@ -3956,18 +3962,18 @@
     </row>
     <row r="24" spans="1:4" ht="14.25">
       <c r="A24" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.25">
       <c r="A25" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B25" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="14.25">
@@ -3996,124 +4002,124 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="9" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="9" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B11" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="9" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B13" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="9" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B14" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="9" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B15" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="9" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>87</v>
@@ -4121,15 +4127,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>87</v>
@@ -4137,42 +4143,42 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B21" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B25" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -4196,50 +4202,50 @@
   <sheetData>
     <row r="5" spans="1:2" ht="14.25">
       <c r="A5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25">
       <c r="A10" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B10" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14.25">
       <c r="A11" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B11" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -4266,7 +4272,7 @@
         <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -4279,7 +4285,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.15"/>
@@ -4290,26 +4296,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4322,74 +4328,82 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25">
       <c r="A10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14.25">
       <c r="A11" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B11" t="s">
-        <v>571</v>
+        <v>568</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4402,18 +4416,18 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4448,7 +4462,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -4473,210 +4487,210 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14.25">
       <c r="A1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B1" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B2" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25">
       <c r="A3" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B3" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14.25">
       <c r="A11" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B11" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.25">
       <c r="A22" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B22" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14.25">
       <c r="A23" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B23" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="17" t="s">
+        <v>518</v>
+      </c>
+      <c r="B26" s="17" t="s">
         <v>521</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
   </sheetData>
@@ -4701,122 +4715,122 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25">
       <c r="A10" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="14.25">
       <c r="A14" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B14" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="14.25">
       <c r="A16" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B16" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
   </sheetData>

--- a/词条标签对照表.xlsx
+++ b/词条标签对照表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784E665D-4C3F-476A-812E-05809D78F3BD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B52060-2589-4764-945B-D110C4E6234F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数学" sheetId="17" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="590">
   <si>
     <t>epsilon符号</t>
   </si>
@@ -1797,6 +1797,12 @@
   </si>
   <si>
     <t>几何矢量</t>
+  </si>
+  <si>
+    <t>矢量空间</t>
+  </si>
+  <si>
+    <t>LSpace</t>
   </si>
 </sst>
 </file>
@@ -2307,8 +2313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4282,10 +4288,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.15"/>
@@ -4296,145 +4302,153 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:2" ht="14.25">
+      <c r="A3" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B3" s="9" t="s">
         <v>409</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>334</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>329</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>328</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>574</v>
+        <v>331</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>195</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>196</v>
+        <v>574</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>244</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="14.25">
-      <c r="A10" t="s">
-        <v>349</v>
-      </c>
-      <c r="B10" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14.25">
       <c r="A11" t="s">
+        <v>349</v>
+      </c>
+      <c r="B11" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="14.25">
+      <c r="A12" t="s">
         <v>567</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>515</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>131</v>
       </c>
     </row>

--- a/词条标签对照表.xlsx
+++ b/词条标签对照表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B52060-2589-4764-945B-D110C4E6234F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28DD8A5-8D40-42D1-B4EA-C4F6D620C234}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="592">
   <si>
     <t>epsilon符号</t>
   </si>
@@ -1803,6 +1803,12 @@
   </si>
   <si>
     <t>LSpace</t>
+  </si>
+  <si>
+    <t>超定线性方程组</t>
+  </si>
+  <si>
+    <t>OvrDet</t>
   </si>
 </sst>
 </file>
@@ -2317,14 +2323,14 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.73046875" customWidth="1"/>
-    <col min="2" max="2" width="14.73046875" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="5" max="5" width="18.73046875" customWidth="1"/>
-    <col min="7" max="7" width="33.73046875" customWidth="1"/>
-    <col min="9" max="9" width="22.86328125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="33.7109375" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2962,9 +2968,9 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.3984375" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3236,9 +3242,9 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.73046875" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3262,7 +3268,7 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -3282,10 +3288,10 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
   </cols>
@@ -3311,11 +3317,11 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="36.73046875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="28.86328125" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.1328125" style="2"/>
+    <col min="1" max="1" width="36.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3525,9 +3531,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.73046875" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3551,21 +3557,21 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="32.59765625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.1328125" style="2"/>
-    <col min="3" max="3" width="32.73046875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.1328125" style="2"/>
-    <col min="5" max="5" width="18.1328125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.1328125" style="2"/>
-    <col min="7" max="7" width="23.86328125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.1328125" style="2"/>
-    <col min="9" max="9" width="13.73046875" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.1328125" style="2"/>
+    <col min="1" max="1" width="32.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="32.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="18.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="23.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="13.7109375" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.25">
+    <row r="1" spans="1:10" ht="15">
       <c r="A1" s="8" t="s">
         <v>388</v>
       </c>
@@ -3580,7 +3586,7 @@
       </c>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="14.25">
+    <row r="2" spans="1:10" ht="15">
       <c r="A2" s="12" t="s">
         <v>71</v>
       </c>
@@ -3612,7 +3618,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.25">
+    <row r="3" spans="1:10" ht="15">
       <c r="A3" s="4" t="s">
         <v>444</v>
       </c>
@@ -3638,7 +3644,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.25">
+    <row r="4" spans="1:10" ht="15">
       <c r="A4" s="2" t="s">
         <v>406</v>
       </c>
@@ -3664,7 +3670,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.25">
+    <row r="5" spans="1:10" ht="15">
       <c r="A5" s="2" t="s">
         <v>405</v>
       </c>
@@ -3704,7 +3710,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.25">
+    <row r="7" spans="1:10" ht="15">
       <c r="A7" s="2" t="s">
         <v>560</v>
       </c>
@@ -3724,7 +3730,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.25">
+    <row r="8" spans="1:10" ht="15">
       <c r="A8" s="9" t="s">
         <v>412</v>
       </c>
@@ -3744,7 +3750,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.25">
+    <row r="9" spans="1:10" ht="15">
       <c r="A9" t="s">
         <v>451</v>
       </c>
@@ -3764,7 +3770,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14.25">
+    <row r="10" spans="1:10" ht="15">
       <c r="A10" s="9" t="s">
         <v>428</v>
       </c>
@@ -3824,7 +3830,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="14.25">
+    <row r="13" spans="1:10" ht="15">
       <c r="A13" s="2" t="s">
         <v>433</v>
       </c>
@@ -3878,7 +3884,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="14.25">
+    <row r="16" spans="1:10" ht="15">
       <c r="A16" s="9" t="s">
         <v>411</v>
       </c>
@@ -3906,7 +3912,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="14.25">
+    <row r="18" spans="1:4" ht="15">
       <c r="A18" s="2" t="s">
         <v>120</v>
       </c>
@@ -3966,7 +3972,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="14.25">
+    <row r="24" spans="1:4" ht="15">
       <c r="A24" t="s">
         <v>374</v>
       </c>
@@ -3974,7 +3980,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="14.25">
+    <row r="25" spans="1:4" ht="15">
       <c r="A25" t="s">
         <v>491</v>
       </c>
@@ -3982,7 +3988,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="14.25">
+    <row r="44" spans="1:2" ht="15">
       <c r="A44"/>
       <c r="B44"/>
     </row>
@@ -4001,9 +4007,9 @@
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.59765625" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4067,7 +4073,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="30">
       <c r="A9" s="9" t="s">
         <v>522</v>
       </c>
@@ -4123,7 +4129,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="30">
       <c r="A16" s="9" t="s">
         <v>492</v>
       </c>
@@ -4200,13 +4206,13 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="21.73046875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:2" ht="14.25">
+    <row r="5" spans="1:2" ht="15">
       <c r="A5" t="s">
         <v>341</v>
       </c>
@@ -4238,7 +4244,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.25">
+    <row r="10" spans="1:2" ht="15">
       <c r="A10" t="s">
         <v>530</v>
       </c>
@@ -4246,7 +4252,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.25">
+    <row r="11" spans="1:2" ht="15">
       <c r="A11" t="s">
         <v>535</v>
       </c>
@@ -4267,7 +4273,7 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="19" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
@@ -4288,15 +4294,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="37.59765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="37.5703125" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -4316,7 +4322,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.25">
+    <row r="3" spans="1:2" ht="15">
       <c r="A3" s="1" t="s">
         <v>408</v>
       </c>
@@ -4332,123 +4338,131 @@
         <v>333</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
+    <row r="5" spans="1:2" ht="15">
+      <c r="A5" t="s">
+        <v>590</v>
+      </c>
+      <c r="B5" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>329</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>328</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>574</v>
+        <v>331</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>195</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>196</v>
+        <v>574</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:2" ht="15">
+      <c r="A12" t="s">
         <v>349</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="14.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:2" ht="15">
+      <c r="A13" t="s">
         <v>567</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>515</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4465,7 +4479,7 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
@@ -4492,14 +4506,14 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="34.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.86328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25">
+    <row r="1" spans="1:2" ht="15">
       <c r="A1" t="s">
         <v>552</v>
       </c>
@@ -4507,7 +4521,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.25">
+    <row r="2" spans="1:2" ht="15">
       <c r="A2" t="s">
         <v>553</v>
       </c>
@@ -4515,7 +4529,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.25">
+    <row r="3" spans="1:2" ht="15">
       <c r="A3" t="s">
         <v>547</v>
       </c>
@@ -4579,7 +4593,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.25">
+    <row r="11" spans="1:2" ht="15">
       <c r="A11" t="s">
         <v>550</v>
       </c>
@@ -4667,7 +4681,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="14.25">
+    <row r="22" spans="1:2" ht="15">
       <c r="A22" t="s">
         <v>342</v>
       </c>
@@ -4675,7 +4689,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="14.25">
+    <row r="23" spans="1:2" ht="15">
       <c r="A23" t="s">
         <v>353</v>
       </c>
@@ -4721,9 +4735,9 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="30.1328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -4799,7 +4813,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.25">
+    <row r="10" spans="1:2" ht="15">
       <c r="A10" s="1" t="s">
         <v>294</v>
       </c>
@@ -4823,7 +4837,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="14.25">
+    <row r="14" spans="1:2" ht="15">
       <c r="A14" t="s">
         <v>513</v>
       </c>
@@ -4839,7 +4853,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="14.25">
+    <row r="16" spans="1:2" ht="15">
       <c r="A16" t="s">
         <v>508</v>
       </c>

--- a/词条标签对照表.xlsx
+++ b/词条标签对照表.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28DD8A5-8D40-42D1-B4EA-C4F6D620C234}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9EF6E8-F4ED-4309-92E4-19495CBA389A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="596">
   <si>
     <t>epsilon符号</t>
   </si>
@@ -1809,6 +1809,18 @@
   </si>
   <si>
     <t>OvrDet</t>
+  </si>
+  <si>
+    <t>多元泰勒展开</t>
+  </si>
+  <si>
+    <t>NDtalr</t>
+  </si>
+  <si>
+    <t>海森矩阵</t>
+  </si>
+  <si>
+    <t>Hesian</t>
   </si>
 </sst>
 </file>
@@ -2320,17 +2332,17 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.73046875" customWidth="1"/>
+    <col min="2" max="2" width="14.73046875" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="33.7109375" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.73046875" customWidth="1"/>
+    <col min="7" max="7" width="33.73046875" customWidth="1"/>
+    <col min="9" max="9" width="22.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2968,9 +2980,9 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="1" max="1" width="30.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3242,9 +3254,9 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3268,7 +3280,7 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -3291,7 +3303,7 @@
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
   </cols>
@@ -3317,11 +3329,11 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="36.73046875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.86328125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3531,9 +3543,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3557,21 +3569,21 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="32.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="18.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="23.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="2"/>
-    <col min="9" max="9" width="13.7109375" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="32.59765625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" style="2"/>
+    <col min="3" max="3" width="32.73046875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.1328125" style="2"/>
+    <col min="5" max="5" width="18.1328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.1328125" style="2"/>
+    <col min="7" max="7" width="23.86328125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.1328125" style="2"/>
+    <col min="9" max="9" width="13.73046875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15">
+    <row r="1" spans="1:10" ht="14.25">
       <c r="A1" s="8" t="s">
         <v>388</v>
       </c>
@@ -3586,7 +3598,7 @@
       </c>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="15">
+    <row r="2" spans="1:10" ht="14.25">
       <c r="A2" s="12" t="s">
         <v>71</v>
       </c>
@@ -3618,7 +3630,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15">
+    <row r="3" spans="1:10" ht="14.25">
       <c r="A3" s="4" t="s">
         <v>444</v>
       </c>
@@ -3644,7 +3656,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15">
+    <row r="4" spans="1:10" ht="14.25">
       <c r="A4" s="2" t="s">
         <v>406</v>
       </c>
@@ -3670,7 +3682,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15">
+    <row r="5" spans="1:10" ht="14.25">
       <c r="A5" s="2" t="s">
         <v>405</v>
       </c>
@@ -3710,7 +3722,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15">
+    <row r="7" spans="1:10" ht="14.25">
       <c r="A7" s="2" t="s">
         <v>560</v>
       </c>
@@ -3730,7 +3742,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15">
+    <row r="8" spans="1:10" ht="14.25">
       <c r="A8" s="9" t="s">
         <v>412</v>
       </c>
@@ -3750,7 +3762,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15">
+    <row r="9" spans="1:10" ht="14.25">
       <c r="A9" t="s">
         <v>451</v>
       </c>
@@ -3770,7 +3782,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15">
+    <row r="10" spans="1:10" ht="14.25">
       <c r="A10" s="9" t="s">
         <v>428</v>
       </c>
@@ -3830,7 +3842,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15">
+    <row r="13" spans="1:10" ht="14.25">
       <c r="A13" s="2" t="s">
         <v>433</v>
       </c>
@@ -3884,7 +3896,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15">
+    <row r="16" spans="1:10" ht="14.25">
       <c r="A16" s="9" t="s">
         <v>411</v>
       </c>
@@ -3912,7 +3924,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15">
+    <row r="18" spans="1:4" ht="14.25">
       <c r="A18" s="2" t="s">
         <v>120</v>
       </c>
@@ -3972,7 +3984,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15">
+    <row r="24" spans="1:4" ht="14.25">
       <c r="A24" t="s">
         <v>374</v>
       </c>
@@ -3980,7 +3992,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15">
+    <row r="25" spans="1:4" ht="14.25">
       <c r="A25" t="s">
         <v>491</v>
       </c>
@@ -3988,7 +4000,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15">
+    <row r="44" spans="1:2" ht="14.25">
       <c r="A44"/>
       <c r="B44"/>
     </row>
@@ -4007,9 +4019,9 @@
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" customWidth="1"/>
+    <col min="1" max="1" width="32.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4073,7 +4085,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30">
+    <row r="9" spans="1:2">
       <c r="A9" s="9" t="s">
         <v>522</v>
       </c>
@@ -4129,7 +4141,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30">
+    <row r="16" spans="1:2">
       <c r="A16" s="9" t="s">
         <v>492</v>
       </c>
@@ -4206,13 +4218,13 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.15"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.73046875" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:2" ht="15">
+    <row r="5" spans="1:2" ht="14.25">
       <c r="A5" t="s">
         <v>341</v>
       </c>
@@ -4244,7 +4256,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15">
+    <row r="10" spans="1:2" ht="14.25">
       <c r="A10" t="s">
         <v>530</v>
       </c>
@@ -4252,7 +4264,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15">
+    <row r="11" spans="1:2" ht="14.25">
       <c r="A11" t="s">
         <v>535</v>
       </c>
@@ -4273,7 +4285,7 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.15"/>
   <cols>
     <col min="1" max="1" width="19" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
@@ -4296,13 +4308,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.15"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="37.59765625" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -4322,7 +4334,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15">
+    <row r="3" spans="1:2" ht="14.25">
       <c r="A3" s="1" t="s">
         <v>408</v>
       </c>
@@ -4338,7 +4350,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15">
+    <row r="5" spans="1:2" ht="14.25">
       <c r="A5" t="s">
         <v>590</v>
       </c>
@@ -4394,7 +4406,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15">
+    <row r="12" spans="1:2" ht="14.25">
       <c r="A12" t="s">
         <v>349</v>
       </c>
@@ -4402,7 +4414,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15">
+    <row r="13" spans="1:2" ht="14.25">
       <c r="A13" t="s">
         <v>567</v>
       </c>
@@ -4456,6 +4468,22 @@
       </c>
       <c r="B24" s="3" t="s">
         <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="14.25">
+      <c r="A26" t="s">
+        <v>592</v>
+      </c>
+      <c r="B26" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="14.25">
+      <c r="A27" t="s">
+        <v>594</v>
+      </c>
+      <c r="B27" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4479,7 +4507,7 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.15"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
@@ -4506,14 +4534,14 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.15"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="34.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.86328125" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15">
+    <row r="1" spans="1:2" ht="14.25">
       <c r="A1" t="s">
         <v>552</v>
       </c>
@@ -4521,7 +4549,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15">
+    <row r="2" spans="1:2" ht="14.25">
       <c r="A2" t="s">
         <v>553</v>
       </c>
@@ -4529,7 +4557,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15">
+    <row r="3" spans="1:2" ht="14.25">
       <c r="A3" t="s">
         <v>547</v>
       </c>
@@ -4593,7 +4621,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15">
+    <row r="11" spans="1:2" ht="14.25">
       <c r="A11" t="s">
         <v>550</v>
       </c>
@@ -4681,7 +4709,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15">
+    <row r="22" spans="1:2" ht="14.25">
       <c r="A22" t="s">
         <v>342</v>
       </c>
@@ -4689,7 +4717,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15">
+    <row r="23" spans="1:2" ht="14.25">
       <c r="A23" t="s">
         <v>353</v>
       </c>
@@ -4735,9 +4763,9 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.15"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.1328125" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -4813,7 +4841,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15">
+    <row r="10" spans="1:2" ht="14.25">
       <c r="A10" s="1" t="s">
         <v>294</v>
       </c>
@@ -4837,7 +4865,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15">
+    <row r="14" spans="1:2" ht="14.25">
       <c r="A14" t="s">
         <v>513</v>
       </c>
@@ -4853,7 +4881,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15">
+    <row r="16" spans="1:2" ht="14.25">
       <c r="A16" t="s">
         <v>508</v>
       </c>

--- a/词条标签对照表.xlsx
+++ b/词条标签对照表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9EF6E8-F4ED-4309-92E4-19495CBA389A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4945BD13-0684-43E2-A0EF-9E4AFF5E737A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数学" sheetId="17" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="598">
   <si>
     <t>epsilon符号</t>
   </si>
@@ -1821,6 +1821,12 @@
   </si>
   <si>
     <t>Hesian</t>
+  </si>
+  <si>
+    <t>真空中的平面电磁波</t>
+  </si>
+  <si>
+    <t>VcPlWv</t>
   </si>
 </sst>
 </file>
@@ -2332,7 +2338,7 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3565,8 +3571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
@@ -4308,8 +4314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.15"/>
@@ -4528,10 +4534,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.15"/>
@@ -4747,6 +4753,14 @@
       </c>
       <c r="B27" s="1" t="s">
         <v>520</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="14.25">
+      <c r="A29" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B29" t="s">
+        <v>597</v>
       </c>
     </row>
   </sheetData>

--- a/词条标签对照表.xlsx
+++ b/词条标签对照表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4945BD13-0684-43E2-A0EF-9E4AFF5E737A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58DEE5D-9799-4BDE-91EC-4C1321EE0D0F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数学" sheetId="17" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="602">
   <si>
     <t>epsilon符号</t>
   </si>
@@ -1130,9 +1130,6 @@
     <t>E</t>
   </si>
   <si>
-    <t>拉格朗日电磁势</t>
-  </si>
-  <si>
     <t>EMLagP</t>
   </si>
   <si>
@@ -1827,6 +1824,21 @@
   </si>
   <si>
     <t>VcPlWv</t>
+  </si>
+  <si>
+    <t>点电荷的拉格朗日和哈密顿量</t>
+  </si>
+  <si>
+    <t>QMPos</t>
+  </si>
+  <si>
+    <t>量子力学的基本假设</t>
+  </si>
+  <si>
+    <t>带电粒子的薛定谔方程</t>
+  </si>
+  <si>
+    <t>EMTDSE</t>
   </si>
 </sst>
 </file>
@@ -2365,7 +2377,7 @@
         <v>254</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K1" s="5"/>
     </row>
@@ -2395,18 +2407,18 @@
         <v>256</v>
       </c>
       <c r="I2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>60</v>
@@ -2415,22 +2427,22 @@
         <v>57</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="J3" t="s">
         <v>506</v>
-      </c>
-      <c r="J3" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2447,13 +2459,13 @@
         <v>47</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>586</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>335</v>
@@ -2464,7 +2476,7 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>363</v>
@@ -2505,7 +2517,7 @@
         <v>67</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>259</v>
@@ -2513,7 +2525,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>90</v>
@@ -2525,21 +2537,21 @@
         <v>82</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="F7" t="s">
         <v>453</v>
       </c>
-      <c r="F7" t="s">
-        <v>454</v>
-      </c>
       <c r="G7" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>414</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>105</v>
@@ -2557,15 +2569,15 @@
         <v>66</v>
       </c>
       <c r="G8" t="s">
+        <v>561</v>
+      </c>
+      <c r="H8" t="s">
         <v>562</v>
-      </c>
-      <c r="H8" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>104</v>
@@ -2583,7 +2595,7 @@
         <v>94</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>141</v>
@@ -2603,7 +2615,7 @@
         <v>96</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>139</v>
@@ -2629,7 +2641,7 @@
         <v>99</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>140</v>
@@ -2643,7 +2655,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B12" t="s">
         <v>288</v>
@@ -2655,21 +2667,21 @@
         <v>52</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>132</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>311</v>
@@ -2681,13 +2693,13 @@
         <v>95</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>432</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>141</v>
@@ -2695,13 +2707,13 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>108</v>
@@ -2713,24 +2725,24 @@
         <v>134</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B15" t="s">
         <v>523</v>
       </c>
-      <c r="B15" t="s">
-        <v>524</v>
-      </c>
       <c r="C15" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>383</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>384</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>152</v>
@@ -2739,24 +2751,24 @@
         <v>68</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C16" t="s">
+        <v>527</v>
+      </c>
+      <c r="D16" t="s">
         <v>528</v>
-      </c>
-      <c r="D16" t="s">
-        <v>529</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>150</v>
@@ -2765,10 +2777,10 @@
         <v>151</v>
       </c>
       <c r="G16" t="s">
+        <v>563</v>
+      </c>
+      <c r="H16" t="s">
         <v>564</v>
-      </c>
-      <c r="H16" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2785,10 +2797,10 @@
         <v>101</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>456</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>144</v>
@@ -2817,10 +2829,10 @@
         <v>127</v>
       </c>
       <c r="G18" t="s">
+        <v>495</v>
+      </c>
+      <c r="H18" t="s">
         <v>496</v>
-      </c>
-      <c r="H18" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2837,15 +2849,15 @@
         <v>129</v>
       </c>
       <c r="G19" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H19" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="C20" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>48</v>
@@ -2857,7 +2869,7 @@
         <v>131</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>146</v>
@@ -2871,10 +2883,10 @@
         <v>89</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2885,26 +2897,26 @@
         <v>310</v>
       </c>
       <c r="G22" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="H22" s="11" t="s">
         <v>557</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="C23" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="D23" t="s">
         <v>426</v>
-      </c>
-      <c r="D23" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="C24" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2949,7 +2961,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2980,10 +2992,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2993,258 +3005,274 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>164</v>
+        <v>599</v>
       </c>
       <c r="B1" t="s">
-        <v>165</v>
+        <v>598</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>277</v>
+        <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>346</v>
+        <v>277</v>
       </c>
       <c r="B3" t="s">
-        <v>347</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>346</v>
       </c>
       <c r="B4" t="s">
-        <v>188</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>351</v>
+        <v>187</v>
       </c>
       <c r="B6" t="s">
-        <v>350</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>449</v>
+        <v>351</v>
       </c>
       <c r="B7" t="s">
-        <v>380</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>569</v>
+        <v>448</v>
       </c>
       <c r="B8" t="s">
-        <v>192</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>206</v>
+        <v>568</v>
       </c>
       <c r="B9" t="s">
-        <v>534</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="B10" t="s">
-        <v>222</v>
+        <v>533</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>318</v>
+        <v>221</v>
       </c>
       <c r="B11" t="s">
-        <v>319</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B12" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>316</v>
       </c>
       <c r="B13" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>355</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>271</v>
+        <v>355</v>
       </c>
       <c r="B15" t="s">
-        <v>225</v>
+        <v>354</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>227</v>
+        <v>272</v>
       </c>
       <c r="B17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B18" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B19" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B20" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>339</v>
+        <v>233</v>
       </c>
       <c r="B21" t="s">
-        <v>338</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>237</v>
+        <v>339</v>
       </c>
       <c r="B22" t="s">
-        <v>238</v>
+        <v>338</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B23" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>337</v>
+        <v>246</v>
       </c>
       <c r="B25" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>262</v>
+        <v>337</v>
       </c>
       <c r="B26" t="s">
-        <v>263</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B27" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
       <c r="B28" t="s">
-        <v>344</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="B29" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B30" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
+        <v>378</v>
+      </c>
+      <c r="B31" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>380</v>
+      </c>
+      <c r="B32" t="s">
         <v>381</v>
       </c>
-      <c r="B31" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>571</v>
+      </c>
+      <c r="B34" t="s">
         <v>572</v>
       </c>
-      <c r="B33" t="s">
-        <v>573</v>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>600</v>
+      </c>
+      <c r="B36" t="s">
+        <v>601</v>
       </c>
     </row>
   </sheetData>
@@ -3267,10 +3295,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B1" t="s">
         <v>578</v>
-      </c>
-      <c r="B1" t="s">
-        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -3591,16 +3619,16 @@
   <sheetData>
     <row r="1" spans="1:10" ht="14.25">
       <c r="A1" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>390</v>
-      </c>
       <c r="G1" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I1" s="5"/>
     </row>
@@ -3612,22 +3640,22 @@
         <v>72</v>
       </c>
       <c r="C2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>448</v>
-      </c>
       <c r="E2" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>461</v>
-      </c>
       <c r="G2" t="s">
+        <v>580</v>
+      </c>
+      <c r="H2" t="s">
         <v>581</v>
-      </c>
-      <c r="H2" t="s">
-        <v>582</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>193</v>
@@ -3638,36 +3666,36 @@
     </row>
     <row r="3" spans="1:10" ht="14.25">
       <c r="A3" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C3" t="s">
+        <v>575</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>576</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>577</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>121</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.25">
       <c r="A4" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>407</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>298</v>
@@ -3676,21 +3704,21 @@
         <v>297</v>
       </c>
       <c r="E4" t="s">
+        <v>525</v>
+      </c>
+      <c r="F4" t="s">
         <v>526</v>
       </c>
-      <c r="F4" t="s">
-        <v>527</v>
-      </c>
       <c r="G4" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>539</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="14.25">
       <c r="A5" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>69</v>
@@ -3702,7 +3730,7 @@
         <v>296</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>285</v>
@@ -3710,19 +3738,19 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>418</v>
-      </c>
       <c r="G6" s="18" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H6" s="18" t="s">
         <v>49</v>
@@ -3730,30 +3758,30 @@
     </row>
     <row r="7" spans="1:10" ht="14.25">
       <c r="A7" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G7" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>462</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25">
       <c r="A8" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>299</v>
@@ -3762,18 +3790,18 @@
         <v>300</v>
       </c>
       <c r="G8" t="s">
+        <v>536</v>
+      </c>
+      <c r="H8" t="s">
         <v>537</v>
-      </c>
-      <c r="H8" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25">
       <c r="A9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>301</v>
@@ -3782,7 +3810,7 @@
         <v>302</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>185</v>
@@ -3790,13 +3818,13 @@
     </row>
     <row r="10" spans="1:10" ht="14.25">
       <c r="A10" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>429</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>119</v>
@@ -3822,7 +3850,7 @@
         <v>44</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>179</v>
@@ -3830,7 +3858,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>45</v>
@@ -3842,21 +3870,21 @@
         <v>284</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>545</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.25">
       <c r="A13" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>308</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>242</v>
@@ -3890,10 +3918,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>31</v>
@@ -3904,24 +3932,24 @@
     </row>
     <row r="16" spans="1:10" ht="14.25">
       <c r="A16" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C16" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D16" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>385</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>386</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>303</v>
@@ -3938,7 +3966,7 @@
         <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>282</v>
@@ -3960,7 +3988,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>122</v>
@@ -3992,18 +4020,18 @@
     </row>
     <row r="24" spans="1:4" ht="14.25">
       <c r="A24" t="s">
+        <v>373</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.25">
       <c r="A25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B25" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="14.25">
@@ -4037,55 +4065,55 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>471</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>485</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>476</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>474</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>148</v>
@@ -4093,63 +4121,63 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>478</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>481</v>
+      </c>
+      <c r="B11" t="s">
         <v>482</v>
-      </c>
-      <c r="B11" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>480</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
+        <v>488</v>
+      </c>
+      <c r="B13" t="s">
         <v>489</v>
-      </c>
-      <c r="B13" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="B14" t="s">
         <v>498</v>
-      </c>
-      <c r="B14" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="B15" t="s">
         <v>532</v>
-      </c>
-      <c r="B15" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>87</v>
@@ -4157,15 +4185,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>422</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>87</v>
@@ -4173,42 +4201,42 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>464</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>467</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
+        <v>468</v>
+      </c>
+      <c r="B21" t="s">
         <v>469</v>
-      </c>
-      <c r="B21" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
+        <v>515</v>
+      </c>
+      <c r="B25" t="s">
         <v>516</v>
-      </c>
-      <c r="B25" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
+        <v>502</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>503</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -4221,7 +4249,7 @@
   <dimension ref="A5:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.15"/>
@@ -4256,26 +4284,26 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25">
       <c r="A10" t="s">
+        <v>529</v>
+      </c>
+      <c r="B10" t="s">
         <v>530</v>
-      </c>
-      <c r="B10" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14.25">
       <c r="A11" t="s">
+        <v>534</v>
+      </c>
+      <c r="B11" t="s">
         <v>535</v>
-      </c>
-      <c r="B11" t="s">
-        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -4326,10 +4354,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4342,10 +4370,10 @@
     </row>
     <row r="3" spans="1:2" ht="14.25">
       <c r="A3" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>408</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4358,10 +4386,10 @@
     </row>
     <row r="5" spans="1:2" ht="14.25">
       <c r="A5" t="s">
+        <v>589</v>
+      </c>
+      <c r="B5" t="s">
         <v>590</v>
-      </c>
-      <c r="B5" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4390,7 +4418,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>195</v>
@@ -4422,26 +4450,26 @@
     </row>
     <row r="13" spans="1:2" ht="14.25">
       <c r="A13" t="s">
+        <v>566</v>
+      </c>
+      <c r="B13" t="s">
         <v>567</v>
-      </c>
-      <c r="B13" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>583</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>514</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4478,18 +4506,18 @@
     </row>
     <row r="26" spans="1:2" ht="14.25">
       <c r="A26" t="s">
+        <v>591</v>
+      </c>
+      <c r="B26" t="s">
         <v>592</v>
-      </c>
-      <c r="B26" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="14.25">
       <c r="A27" t="s">
+        <v>593</v>
+      </c>
+      <c r="B27" t="s">
         <v>594</v>
-      </c>
-      <c r="B27" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4536,8 +4564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.15"/>
@@ -4549,26 +4577,26 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14.25">
       <c r="A1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25">
       <c r="A2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B2" t="s">
         <v>553</v>
-      </c>
-      <c r="B2" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25">
       <c r="A3" t="s">
+        <v>546</v>
+      </c>
+      <c r="B3" t="s">
         <v>547</v>
-      </c>
-      <c r="B3" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4597,10 +4625,10 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>555</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4629,10 +4657,10 @@
     </row>
     <row r="11" spans="1:2" ht="14.25">
       <c r="A11" t="s">
+        <v>549</v>
+      </c>
+      <c r="B11" t="s">
         <v>550</v>
-      </c>
-      <c r="B11" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4677,7 +4705,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>251</v>
@@ -4731,36 +4759,36 @@
         <v>352</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:2" ht="14.25">
+      <c r="A24" t="s">
+        <v>597</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="17" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>519</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="14.25">
       <c r="A29" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B29" t="s">
         <v>596</v>
-      </c>
-      <c r="B29" t="s">
-        <v>597</v>
       </c>
     </row>
   </sheetData>
@@ -4881,26 +4909,26 @@
     </row>
     <row r="14" spans="1:2" ht="14.25">
       <c r="A14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B14" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>510</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="14.25">
       <c r="A16" t="s">
+        <v>507</v>
+      </c>
+      <c r="B16" t="s">
         <v>508</v>
-      </c>
-      <c r="B16" t="s">
-        <v>509</v>
       </c>
     </row>
   </sheetData>

--- a/词条标签对照表.xlsx
+++ b/词条标签对照表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58DEE5D-9799-4BDE-91EC-4C1321EE0D0F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16D7C51-45CC-4F06-8575-83C0B6A9D5CB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数学" sheetId="17" r:id="rId1"/>
@@ -2994,8 +2994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3599,8 +3599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>

--- a/词条标签对照表.xlsx
+++ b/词条标签对照表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16D7C51-45CC-4F06-8575-83C0B6A9D5CB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6E529F-165E-4D95-8CAA-C27D73D98E47}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数学" sheetId="17" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="622">
   <si>
     <t>epsilon符号</t>
   </si>
@@ -1839,6 +1839,66 @@
   </si>
   <si>
     <t>EMTDSE</t>
+  </si>
+  <si>
+    <t>球坐标系中的拉普拉斯方程</t>
+  </si>
+  <si>
+    <t>SphLap</t>
+  </si>
+  <si>
+    <t>FrNorm</t>
+  </si>
+  <si>
+    <t>球谐展开函数归一化</t>
+  </si>
+  <si>
+    <t>Pl2Ylm</t>
+  </si>
+  <si>
+    <t>平面波的球谐展开</t>
+  </si>
+  <si>
+    <t>库伦波函数</t>
+  </si>
+  <si>
+    <t>CulmWf</t>
+  </si>
+  <si>
+    <t>虚时间法求基态波函数</t>
+  </si>
+  <si>
+    <t>ImgT</t>
+  </si>
+  <si>
+    <t>常见物理量</t>
+  </si>
+  <si>
+    <t>PhyQty</t>
+  </si>
+  <si>
+    <t>矩阵与矢量空间</t>
+  </si>
+  <si>
+    <t>MatSpc</t>
+  </si>
+  <si>
+    <t>逆矩阵</t>
+  </si>
+  <si>
+    <t>InvMat</t>
+  </si>
+  <si>
+    <t>离散傅里叶变换</t>
+  </si>
+  <si>
+    <t>DFT</t>
+  </si>
+  <si>
+    <t>离散正弦变换</t>
+  </si>
+  <si>
+    <t>DST</t>
   </si>
 </sst>
 </file>
@@ -2349,8 +2409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2992,10 +3052,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3275,6 +3335,14 @@
         <v>601</v>
       </c>
     </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>608</v>
+      </c>
+      <c r="B37" t="s">
+        <v>609</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3282,10 +3350,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA727D62-05EC-4233-BB6E-5003ECFC301D}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3299,6 +3367,30 @@
       </c>
       <c r="B1" t="s">
         <v>578</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>618</v>
+      </c>
+      <c r="B3" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>620</v>
+      </c>
+      <c r="B4" t="s">
+        <v>621</v>
       </c>
     </row>
   </sheetData>
@@ -3331,15 +3423,15 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="1" max="1" width="24.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3348,6 +3440,46 @@
       </c>
       <c r="B1" t="s">
         <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>605</v>
+      </c>
+      <c r="B3" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>607</v>
+      </c>
+      <c r="B4" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -3599,8 +3731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15"/>
@@ -3657,11 +3789,11 @@
       <c r="H2" t="s">
         <v>581</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>194</v>
+      <c r="I2" t="s">
+        <v>612</v>
+      </c>
+      <c r="J2" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.25">
@@ -3688,6 +3820,12 @@
       </c>
       <c r="H3" s="13" t="s">
         <v>371</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.25">
@@ -4249,7 +4387,7 @@
   <dimension ref="A5:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.15"/>
@@ -4340,10 +4478,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.15"/>
@@ -4400,14 +4538,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>331</v>
@@ -4424,14 +4554,6 @@
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>243</v>
@@ -4527,6 +4649,26 @@
       <c r="B29" s="1" t="s">
         <v>131</v>
       </c>
+    </row>
+    <row r="30" spans="1:2" ht="14.25">
+      <c r="A30" t="s">
+        <v>614</v>
+      </c>
+      <c r="B30" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="14.25">
+      <c r="A31" t="s">
+        <v>616</v>
+      </c>
+      <c r="B31" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="14.25">
+      <c r="A32"/>
+      <c r="B32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4565,7 +4707,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.15"/>

--- a/词条标签对照表.xlsx
+++ b/词条标签对照表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6E529F-165E-4D95-8CAA-C27D73D98E47}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C17194-2A36-4D92-8887-2F24343063CB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" tabRatio="759" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数学" sheetId="17" r:id="rId1"/>
@@ -1859,9 +1859,6 @@
     <t>平面波的球谐展开</t>
   </si>
   <si>
-    <t>库伦波函数</t>
-  </si>
-  <si>
     <t>CulmWf</t>
   </si>
   <si>
@@ -1899,6 +1896,9 @@
   </si>
   <si>
     <t>DST</t>
+  </si>
+  <si>
+    <t>库仑波函数</t>
   </si>
 </sst>
 </file>
@@ -3054,8 +3054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3337,10 +3337,10 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
+        <v>621</v>
+      </c>
+      <c r="B37" t="s">
         <v>608</v>
-      </c>
-      <c r="B37" t="s">
-        <v>609</v>
       </c>
     </row>
   </sheetData>
@@ -3352,8 +3352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA727D62-05EC-4233-BB6E-5003ECFC301D}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3371,26 +3371,26 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B2" t="s">
         <v>610</v>
-      </c>
-      <c r="B2" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B3" t="s">
         <v>618</v>
-      </c>
-      <c r="B3" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>619</v>
+      </c>
+      <c r="B4" t="s">
         <v>620</v>
-      </c>
-      <c r="B4" t="s">
-        <v>621</v>
       </c>
     </row>
   </sheetData>
@@ -3790,10 +3790,10 @@
         <v>581</v>
       </c>
       <c r="I2" t="s">
+        <v>611</v>
+      </c>
+      <c r="J2" t="s">
         <v>612</v>
-      </c>
-      <c r="J2" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.25">
@@ -4652,18 +4652,18 @@
     </row>
     <row r="30" spans="1:2" ht="14.25">
       <c r="A30" t="s">
+        <v>613</v>
+      </c>
+      <c r="B30" t="s">
         <v>614</v>
-      </c>
-      <c r="B30" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="14.25">
       <c r="A31" t="s">
+        <v>615</v>
+      </c>
+      <c r="B31" t="s">
         <v>616</v>
-      </c>
-      <c r="B31" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="14.25">
